--- a/tests/integration_test_files/simple_1_v2.xlsx
+++ b/tests/integration_test_files/simple_1_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68FB89F-6B24-7D4C-A0A9-838DD14A688F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BECD009-4406-C34F-ACEE-0D427949DB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="59000" yWindow="500" windowWidth="33600" windowHeight="19480" firstSheet="5" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="586">
   <si>
     <t>Screening</t>
   </si>
@@ -1778,9 +1778,6 @@
   </si>
   <si>
     <t>Dosing</t>
-  </si>
-  <si>
-    <t>D24</t>
   </si>
   <si>
     <t>TIM3</t>
@@ -3429,7 +3426,7 @@
         <v>207</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>195</v>
@@ -5322,7 +5319,7 @@
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5354,7 +5351,7 @@
         <v>563</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>556</v>
@@ -5380,7 +5377,7 @@
         <v>565</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>219</v>
@@ -5406,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>219</v>
@@ -5445,7 +5442,7 @@
         <v>563</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>556</v>
@@ -5626,7 +5623,7 @@
         <v>549</v>
       </c>
       <c r="B2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -5652,10 +5649,10 @@
         <v>561</v>
       </c>
       <c r="B3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D3" t="s">
         <v>550</v>
@@ -5673,21 +5670,21 @@
         <v>560</v>
       </c>
       <c r="I3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C4" t="s">
         <v>565</v>
       </c>
       <c r="D4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E4" t="s">
         <v>563</v>
@@ -5696,65 +5693,65 @@
         <v>563</v>
       </c>
       <c r="G4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F5" t="s">
         <v>563</v>
       </c>
       <c r="G5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H5" t="s">
         <v>560</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C6" t="s">
         <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E6" t="s">
+        <v>577</v>
+      </c>
+      <c r="F6" t="s">
         <v>578</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>579</v>
-      </c>
-      <c r="G6" t="s">
-        <v>580</v>
       </c>
       <c r="H6" t="s">
         <v>560</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/simple_1_v2.xlsx
+++ b/tests/integration_test_files/simple_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BECD009-4406-C34F-ACEE-0D427949DB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41662568-58F2-B344-8472-FE1413B91E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59000" yWindow="500" windowWidth="33600" windowHeight="19480" firstSheet="5" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="5" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="587">
   <si>
     <t>Screening</t>
   </si>
@@ -1838,6 +1838,9 @@
   </si>
   <si>
     <t>Pre dose</t>
+  </si>
+  <si>
+    <t>(EXIT)</t>
   </si>
 </sst>
 </file>
@@ -1998,10 +2001,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4998,34 +5001,34 @@
       <c r="A3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -5145,16 +5148,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5319,7 +5322,7 @@
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5447,7 +5450,9 @@
       <c r="G5" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>

--- a/tests/integration_test_files/simple_1_v2.xlsx
+++ b/tests/integration_test_files/simple_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41662568-58F2-B344-8472-FE1413B91E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7166F1-2091-B044-BB5A-4FD52F139C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" firstSheet="5" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="36640" yWindow="3900" windowWidth="33600" windowHeight="19460" firstSheet="5" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1714,18 +1714,12 @@
     <t>label</t>
   </si>
   <si>
-    <t xml:space="preserve">from </t>
-  </si>
-  <si>
     <t>to</t>
   </si>
   <si>
     <t>timingValue</t>
   </si>
   <si>
-    <t>tofrom</t>
-  </si>
-  <si>
     <t>window</t>
   </si>
   <si>
@@ -1841,6 +1835,12 @@
   </si>
   <si>
     <t>(EXIT)</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>toFrom</t>
   </si>
 </sst>
 </file>
@@ -2001,10 +2001,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3429,7 +3429,7 @@
         <v>207</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>195</v>
@@ -5001,34 +5001,34 @@
       <c r="A3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -5148,16 +5148,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5318,7 +5318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -5345,19 +5345,19 @@
         <v>471</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5374,13 +5374,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>219</v>
@@ -5397,7 +5397,7 @@
         <v>543</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>219</v>
@@ -5418,46 +5418,46 @@
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="C5" s="17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="C6" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5469,7 +5469,7 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="17" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5491,7 +5491,7 @@
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="17" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>204</v>
@@ -5582,8 +5582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5E3869-2369-5644-A00D-6AA078FB1D13}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5608,155 +5608,155 @@
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>546</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F3" t="s">
         <v>561</v>
-      </c>
-      <c r="B3" t="s">
-        <v>583</v>
-      </c>
-      <c r="C3" t="s">
-        <v>585</v>
-      </c>
-      <c r="D3" t="s">
-        <v>550</v>
-      </c>
-      <c r="E3" t="s">
-        <v>562</v>
-      </c>
-      <c r="F3" t="s">
-        <v>563</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E4" t="s">
+        <v>561</v>
+      </c>
+      <c r="F4" t="s">
+        <v>561</v>
+      </c>
+      <c r="G4" t="s">
         <v>569</v>
-      </c>
-      <c r="E4" t="s">
-        <v>563</v>
-      </c>
-      <c r="F4" t="s">
-        <v>563</v>
-      </c>
-      <c r="G4" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D5" t="s">
+        <v>570</v>
+      </c>
+      <c r="E5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F5" t="s">
+        <v>561</v>
+      </c>
+      <c r="G5" t="s">
+        <v>573</v>
+      </c>
+      <c r="H5" t="s">
+        <v>558</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="D5" t="s">
-        <v>572</v>
-      </c>
-      <c r="E5" t="s">
-        <v>578</v>
-      </c>
-      <c r="F5" t="s">
-        <v>563</v>
-      </c>
-      <c r="G5" t="s">
-        <v>575</v>
-      </c>
-      <c r="H5" t="s">
-        <v>560</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C6" t="s">
         <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E6" t="s">
+        <v>575</v>
+      </c>
+      <c r="F6" t="s">
+        <v>576</v>
+      </c>
+      <c r="G6" t="s">
         <v>577</v>
       </c>
-      <c r="F6" t="s">
-        <v>578</v>
-      </c>
-      <c r="G6" t="s">
-        <v>579</v>
-      </c>
       <c r="H6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/simple_1_v2.xlsx
+++ b/tests/integration_test_files/simple_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7166F1-2091-B044-BB5A-4FD52F139C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E6165E-A867-6748-B1D6-8CD5A2302C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36640" yWindow="3900" windowWidth="33600" windowHeight="19460" firstSheet="5" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="64780" yWindow="4960" windowWidth="33600" windowHeight="19460" firstSheet="5" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="586">
   <si>
     <t>Screening</t>
   </si>
@@ -1805,9 +1805,6 @@
   </si>
   <si>
     <t>-1..1 days</t>
-  </si>
-  <si>
-    <t>D35</t>
   </si>
   <si>
     <t>D14</t>
@@ -2001,10 +1998,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5001,34 +4998,34 @@
       <c r="A3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -5148,16 +5145,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5354,7 +5351,7 @@
         <v>561</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>554</v>
@@ -5445,13 +5442,13 @@
         <v>561</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>554</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -5583,7 +5580,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5608,7 +5605,7 @@
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>544</v>
@@ -5617,7 +5614,7 @@
         <v>545</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>546</v>
@@ -5628,7 +5625,7 @@
         <v>547</v>
       </c>
       <c r="B2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -5654,10 +5651,10 @@
         <v>559</v>
       </c>
       <c r="B3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D3" t="s">
         <v>548</v>
@@ -5683,7 +5680,7 @@
         <v>564</v>
       </c>
       <c r="B4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C4" t="s">
         <v>563</v>
@@ -5706,7 +5703,7 @@
         <v>565</v>
       </c>
       <c r="B5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C5" t="s">
         <v>572</v>
@@ -5715,7 +5712,7 @@
         <v>570</v>
       </c>
       <c r="E5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F5" t="s">
         <v>561</v>
@@ -5735,7 +5732,7 @@
         <v>566</v>
       </c>
       <c r="B6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C6" t="s">
         <v>219</v>
@@ -5744,13 +5741,13 @@
         <v>570</v>
       </c>
       <c r="E6" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="F6" t="s">
+        <v>561</v>
+      </c>
+      <c r="G6" t="s">
         <v>576</v>
-      </c>
-      <c r="G6" t="s">
-        <v>577</v>
       </c>
       <c r="H6" t="s">
         <v>558</v>

--- a/tests/integration_test_files/simple_1_v2.xlsx
+++ b/tests/integration_test_files/simple_1_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E6165E-A867-6748-B1D6-8CD5A2302C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4DBBC9-8275-164A-9547-CD3A6453028E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64780" yWindow="4960" windowWidth="33600" windowHeight="19460" firstSheet="5" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="32380" yWindow="5640" windowWidth="33600" windowHeight="19460" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="583">
   <si>
     <t>Screening</t>
   </si>
@@ -462,12 +462,6 @@
     <t>protocolVersion</t>
   </si>
   <si>
-    <t>protocolAmendment</t>
-  </si>
-  <si>
-    <t>protocolEffectiveDate</t>
-  </si>
-  <si>
     <t>protocolStatus</t>
   </si>
   <si>
@@ -480,16 +474,10 @@
     <t>Something Public</t>
   </si>
   <si>
-    <t>Somethign Clever</t>
-  </si>
-  <si>
     <t>draft</t>
   </si>
   <si>
     <t>Somethign Clever But New</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>businessTherapeuticAreas</t>
@@ -1838,6 +1826,9 @@
   </si>
   <si>
     <t>toFrom</t>
+  </si>
+  <si>
+    <t>SIMPLE2</t>
   </si>
 </sst>
 </file>
@@ -1921,7 +1912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1959,9 +1950,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1998,10 +1986,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2319,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2335,267 +2323,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="B10" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="B11" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="B12" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="B13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="B14" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="15">
-        <v>40179</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="15">
-        <v>40544</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
       <c r="H19" s="1"/>
     </row>
   </sheetData>
@@ -3177,29 +3105,29 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
         <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
         <v>99</v>
@@ -3208,7 +3136,7 @@
         <v>105</v>
       </c>
       <c r="H5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3239,63 +3167,63 @@
       <c r="A1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>176</v>
+      <c r="B1" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3327,138 +3255,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>187</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3484,105 +3412,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>191</v>
+      <c r="B1" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3608,1231 +3536,1231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>274</v>
+      <c r="A1" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="B13" s="26"/>
+        <v>401</v>
+      </c>
+      <c r="B13" s="25"/>
       <c r="C13" s="10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="B14" s="26"/>
+        <v>411</v>
+      </c>
+      <c r="B14" s="25"/>
       <c r="C14" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B15" s="26"/>
+        <v>412</v>
+      </c>
+      <c r="B15" s="25"/>
       <c r="C15" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="B16" s="26"/>
+        <v>413</v>
+      </c>
+      <c r="B16" s="25"/>
       <c r="C16" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="B17" s="26"/>
+        <v>414</v>
+      </c>
+      <c r="B17" s="25"/>
       <c r="C17" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B18" s="26"/>
+        <v>490</v>
+      </c>
+      <c r="B18" s="25"/>
       <c r="C18" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B19" s="26"/>
+        <v>491</v>
+      </c>
+      <c r="B19" s="25"/>
       <c r="C19" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B20" s="26"/>
+        <v>468</v>
+      </c>
+      <c r="B20" s="25"/>
       <c r="C20" s="10" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B21" s="26"/>
+        <v>492</v>
+      </c>
+      <c r="B21" s="25"/>
       <c r="C21" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B22" s="26"/>
+        <v>493</v>
+      </c>
+      <c r="B22" s="25"/>
       <c r="C22" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B23" s="26"/>
+        <v>494</v>
+      </c>
+      <c r="B23" s="25"/>
       <c r="C23" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B24" s="26"/>
+        <v>495</v>
+      </c>
+      <c r="B24" s="25"/>
       <c r="C24" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B25" s="26"/>
+        <v>496</v>
+      </c>
+      <c r="B25" s="25"/>
       <c r="C25" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B26" s="26"/>
+        <v>457</v>
+      </c>
+      <c r="B26" s="25"/>
       <c r="C26" s="10" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B27" s="26"/>
+        <v>458</v>
+      </c>
+      <c r="B27" s="25"/>
       <c r="C27" s="10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B28" s="26"/>
+        <v>459</v>
+      </c>
+      <c r="B28" s="25"/>
       <c r="C28" s="10" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="B29" s="26"/>
+        <v>460</v>
+      </c>
+      <c r="B29" s="25"/>
       <c r="C29" s="10" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="B30" s="26"/>
+        <v>497</v>
+      </c>
+      <c r="B30" s="25"/>
       <c r="C30" s="10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B31" s="26"/>
+        <v>469</v>
+      </c>
+      <c r="B31" s="25"/>
       <c r="C31" s="10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B32" s="26"/>
+        <v>498</v>
+      </c>
+      <c r="B32" s="25"/>
       <c r="C32" s="10" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B33" s="26"/>
+        <v>499</v>
+      </c>
+      <c r="B33" s="25"/>
       <c r="C33" s="10" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B34" s="26"/>
+        <v>500</v>
+      </c>
+      <c r="B34" s="25"/>
       <c r="C34" s="10" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="B35" s="26"/>
+        <v>415</v>
+      </c>
+      <c r="B35" s="25"/>
       <c r="C35" s="10" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B36" s="26"/>
+        <v>501</v>
+      </c>
+      <c r="B36" s="25"/>
       <c r="C36" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B37" s="26"/>
+        <v>502</v>
+      </c>
+      <c r="B37" s="25"/>
       <c r="C37" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B38" s="26"/>
+        <v>416</v>
+      </c>
+      <c r="B38" s="25"/>
       <c r="C38" s="10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="B39" s="26"/>
+        <v>417</v>
+      </c>
+      <c r="B39" s="25"/>
       <c r="C39" s="10" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B40" s="26"/>
+        <v>418</v>
+      </c>
+      <c r="B40" s="25"/>
       <c r="C40" s="10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B41" s="26"/>
+        <v>503</v>
+      </c>
+      <c r="B41" s="25"/>
       <c r="C41" s="10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="B42" s="26"/>
+        <v>419</v>
+      </c>
+      <c r="B42" s="25"/>
       <c r="C42" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B43" s="26"/>
+        <v>420</v>
+      </c>
+      <c r="B43" s="25"/>
       <c r="C43" s="10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="B44" s="26"/>
+        <v>421</v>
+      </c>
+      <c r="B44" s="25"/>
       <c r="C44" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B45" s="26"/>
+        <v>504</v>
+      </c>
+      <c r="B45" s="25"/>
       <c r="C45" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B46" s="26"/>
+        <v>505</v>
+      </c>
+      <c r="B46" s="25"/>
       <c r="C46" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="B47" s="26"/>
+        <v>422</v>
+      </c>
+      <c r="B47" s="25"/>
       <c r="C47" s="10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="B48" s="26"/>
+        <v>423</v>
+      </c>
+      <c r="B48" s="25"/>
       <c r="C48" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B49" s="26"/>
+        <v>424</v>
+      </c>
+      <c r="B49" s="25"/>
       <c r="C49" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="B50" s="26"/>
+        <v>425</v>
+      </c>
+      <c r="B50" s="25"/>
       <c r="C50" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B51" s="26"/>
+        <v>470</v>
+      </c>
+      <c r="B51" s="25"/>
       <c r="C51" s="10" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B52" s="26"/>
+        <v>506</v>
+      </c>
+      <c r="B52" s="25"/>
       <c r="C52" s="10" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B53" s="26"/>
+        <v>426</v>
+      </c>
+      <c r="B53" s="25"/>
       <c r="C53" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B54" s="26"/>
+        <v>427</v>
+      </c>
+      <c r="B54" s="25"/>
       <c r="C54" s="10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B55" s="26"/>
+        <v>428</v>
+      </c>
+      <c r="B55" s="25"/>
       <c r="C55" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B56" s="26"/>
+        <v>508</v>
+      </c>
+      <c r="B56" s="25"/>
       <c r="C56" s="10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B57" s="26"/>
+        <v>509</v>
+      </c>
+      <c r="B57" s="25"/>
       <c r="C57" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B58" s="26"/>
+        <v>510</v>
+      </c>
+      <c r="B58" s="25"/>
       <c r="C58" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B59" s="26"/>
+        <v>471</v>
+      </c>
+      <c r="B59" s="25"/>
       <c r="C59" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B60" s="26"/>
+        <v>511</v>
+      </c>
+      <c r="B60" s="25"/>
       <c r="C60" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B61" s="26"/>
+        <v>512</v>
+      </c>
+      <c r="B61" s="25"/>
       <c r="C61" s="10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B62" s="26"/>
+        <v>513</v>
+      </c>
+      <c r="B62" s="25"/>
       <c r="C62" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B63" s="26"/>
+        <v>461</v>
+      </c>
+      <c r="B63" s="25"/>
       <c r="C63" s="10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="B64" s="26"/>
+        <v>429</v>
+      </c>
+      <c r="B64" s="25"/>
       <c r="C64" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B65" s="26"/>
+        <v>430</v>
+      </c>
+      <c r="B65" s="25"/>
       <c r="C65" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B66" s="26"/>
+        <v>431</v>
+      </c>
+      <c r="B66" s="25"/>
       <c r="C66" s="10" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B67" s="26"/>
+        <v>432</v>
+      </c>
+      <c r="B67" s="25"/>
       <c r="C67" s="10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B68" s="26"/>
+        <v>514</v>
+      </c>
+      <c r="B68" s="25"/>
       <c r="C68" s="10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="B69" s="26"/>
+        <v>462</v>
+      </c>
+      <c r="B69" s="25"/>
       <c r="C69" s="10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B70" s="26"/>
+        <v>433</v>
+      </c>
+      <c r="B70" s="25"/>
       <c r="C70" s="10" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B71" s="26"/>
+        <v>434</v>
+      </c>
+      <c r="B71" s="25"/>
       <c r="C71" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B72" s="26"/>
+        <v>435</v>
+      </c>
+      <c r="B72" s="25"/>
       <c r="C72" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B73" s="26"/>
+        <v>436</v>
+      </c>
+      <c r="B73" s="25"/>
       <c r="C73" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B74" s="26"/>
+        <v>437</v>
+      </c>
+      <c r="B74" s="25"/>
       <c r="C74" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B75" s="26"/>
+        <v>438</v>
+      </c>
+      <c r="B75" s="25"/>
       <c r="C75" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B76" s="26"/>
+        <v>439</v>
+      </c>
+      <c r="B76" s="25"/>
       <c r="C76" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B77" s="26"/>
+        <v>440</v>
+      </c>
+      <c r="B77" s="25"/>
       <c r="C77" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B78" s="26"/>
+        <v>441</v>
+      </c>
+      <c r="B78" s="25"/>
       <c r="C78" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B79" s="26"/>
+        <v>515</v>
+      </c>
+      <c r="B79" s="25"/>
       <c r="C79" s="10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B80" s="26"/>
+        <v>442</v>
+      </c>
+      <c r="B80" s="25"/>
       <c r="C80" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B81" s="26"/>
+        <v>443</v>
+      </c>
+      <c r="B81" s="25"/>
       <c r="C81" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B82" s="26"/>
+        <v>516</v>
+      </c>
+      <c r="B82" s="25"/>
       <c r="C82" s="10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B83" s="26"/>
+        <v>444</v>
+      </c>
+      <c r="B83" s="25"/>
       <c r="C83" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B84" s="26"/>
+        <v>445</v>
+      </c>
+      <c r="B84" s="25"/>
       <c r="C84" s="10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B85" s="26"/>
+        <v>446</v>
+      </c>
+      <c r="B85" s="25"/>
       <c r="C85" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B86" s="26"/>
+        <v>447</v>
+      </c>
+      <c r="B86" s="25"/>
       <c r="C86" s="10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B87" s="26"/>
+        <v>448</v>
+      </c>
+      <c r="B87" s="25"/>
       <c r="C87" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B88" s="26"/>
+        <v>517</v>
+      </c>
+      <c r="B88" s="25"/>
       <c r="C88" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B89" s="26"/>
+        <v>518</v>
+      </c>
+      <c r="B89" s="25"/>
       <c r="C89" s="10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="B90" s="26"/>
+        <v>519</v>
+      </c>
+      <c r="B90" s="25"/>
       <c r="C90" s="10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B91" s="26"/>
+        <v>511</v>
+      </c>
+      <c r="B91" s="25"/>
       <c r="C91" s="10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B92" s="26"/>
+        <v>463</v>
+      </c>
+      <c r="B92" s="25"/>
       <c r="C92" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B93" s="26"/>
+        <v>472</v>
+      </c>
+      <c r="B93" s="25"/>
       <c r="C93" s="10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="B94" s="26"/>
+        <v>520</v>
+      </c>
+      <c r="B94" s="25"/>
       <c r="C94" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B95" s="26"/>
+        <v>521</v>
+      </c>
+      <c r="B95" s="25"/>
       <c r="C95" s="10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B96" s="26"/>
+        <v>449</v>
+      </c>
+      <c r="B96" s="25"/>
       <c r="C96" s="10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B97" s="26"/>
+        <v>450</v>
+      </c>
+      <c r="B97" s="25"/>
       <c r="C97" s="10" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B98" s="26"/>
+        <v>451</v>
+      </c>
+      <c r="B98" s="25"/>
       <c r="C98" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B99" s="26"/>
+        <v>452</v>
+      </c>
+      <c r="B99" s="25"/>
       <c r="C99" s="10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B100" s="26"/>
+        <v>453</v>
+      </c>
+      <c r="B100" s="25"/>
       <c r="C100" s="10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="B101" s="26"/>
+        <v>522</v>
+      </c>
+      <c r="B101" s="25"/>
       <c r="C101" s="10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="B102" s="26"/>
+        <v>523</v>
+      </c>
+      <c r="B102" s="25"/>
       <c r="C102" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B103" s="26"/>
+        <v>524</v>
+      </c>
+      <c r="B103" s="25"/>
       <c r="C103" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B104" s="26"/>
+        <v>525</v>
+      </c>
+      <c r="B104" s="25"/>
       <c r="C104" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B105" s="26"/>
+        <v>526</v>
+      </c>
+      <c r="B105" s="25"/>
       <c r="C105" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="B106" s="26"/>
+        <v>527</v>
+      </c>
+      <c r="B106" s="25"/>
       <c r="C106" s="10" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B107" s="26"/>
+        <v>528</v>
+      </c>
+      <c r="B107" s="25"/>
       <c r="C107" s="10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B108" s="26"/>
+        <v>473</v>
+      </c>
+      <c r="B108" s="25"/>
       <c r="C108" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="B109" s="26"/>
+        <v>529</v>
+      </c>
+      <c r="B109" s="25"/>
       <c r="C109" s="10" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="B110" s="26"/>
+        <v>530</v>
+      </c>
+      <c r="B110" s="25"/>
       <c r="C110" s="10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B111" s="26"/>
+        <v>531</v>
+      </c>
+      <c r="B111" s="25"/>
       <c r="C111" s="10" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="B112" s="26"/>
+        <v>532</v>
+      </c>
+      <c r="B112" s="25"/>
       <c r="C112" s="10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="B113" s="26"/>
+        <v>533</v>
+      </c>
+      <c r="B113" s="25"/>
       <c r="C113" s="10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B114" s="26"/>
+        <v>474</v>
+      </c>
+      <c r="B114" s="25"/>
       <c r="C114" s="10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B115" s="26"/>
+        <v>489</v>
+      </c>
+      <c r="B115" s="25"/>
       <c r="C115" s="10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B116" s="26"/>
+        <v>488</v>
+      </c>
+      <c r="B116" s="25"/>
       <c r="C116" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B117" s="26"/>
+        <v>487</v>
+      </c>
+      <c r="B117" s="25"/>
       <c r="C117" s="10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B118" s="26"/>
+        <v>475</v>
+      </c>
+      <c r="B118" s="25"/>
       <c r="C118" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B119" s="26"/>
+        <v>486</v>
+      </c>
+      <c r="B119" s="25"/>
       <c r="C119" s="10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B120" s="26"/>
+        <v>485</v>
+      </c>
+      <c r="B120" s="25"/>
       <c r="C120" s="10" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B121" s="26"/>
+        <v>484</v>
+      </c>
+      <c r="B121" s="25"/>
       <c r="C121" s="10" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B122" s="26"/>
+        <v>483</v>
+      </c>
+      <c r="B122" s="25"/>
       <c r="C122" s="10" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B123" s="26"/>
+        <v>476</v>
+      </c>
+      <c r="B123" s="25"/>
       <c r="C123" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B124" s="26"/>
+        <v>482</v>
+      </c>
+      <c r="B124" s="25"/>
       <c r="C124" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B125" s="26"/>
+        <v>454</v>
+      </c>
+      <c r="B125" s="25"/>
       <c r="C125" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B126" s="26"/>
+        <v>455</v>
+      </c>
+      <c r="B126" s="25"/>
       <c r="C126" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="B127" s="26"/>
+        <v>456</v>
+      </c>
+      <c r="B127" s="25"/>
       <c r="C127" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="B128" s="26"/>
+        <v>481</v>
+      </c>
+      <c r="B128" s="25"/>
       <c r="C128" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="B129" s="26"/>
+        <v>480</v>
+      </c>
+      <c r="B129" s="25"/>
       <c r="C129" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B130" s="26"/>
+        <v>479</v>
+      </c>
+      <c r="B130" s="25"/>
       <c r="C130" s="10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B131" s="26"/>
+        <v>477</v>
+      </c>
+      <c r="B131" s="25"/>
       <c r="C131" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="B132" s="26"/>
+        <v>478</v>
+      </c>
+      <c r="B132" s="25"/>
       <c r="C132" s="10" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -4856,18 +4784,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4893,22 +4821,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4923,7 +4851,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -4943,7 +4871,7 @@
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -4973,116 +4901,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="A1" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="A2" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="B6" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="B8" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="A9" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>210</v>
+      <c r="A12" s="16" t="s">
+        <v>206</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>28</v>
@@ -5102,16 +5030,16 @@
         <v>26</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5119,16 +5047,16 @@
         <v>27</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5145,16 +5073,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5178,20 +5106,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>256</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5199,16 +5127,16 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5219,13 +5147,13 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5252,14 +5180,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>247</v>
+      <c r="A1" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5267,10 +5195,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5278,10 +5206,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5289,10 +5217,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5300,10 +5228,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -5332,69 +5260,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>167</v>
+      <c r="A1" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>471</v>
+        <v>164</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>467</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>171</v>
+      <c r="A3" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>543</v>
+        <v>168</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>539</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5403,58 +5331,58 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="16"/>
+      <c r="C4" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="C5" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>560</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="C6" s="17" t="s">
-        <v>552</v>
+      <c r="A6" s="16"/>
+      <c r="C6" s="16" t="s">
+        <v>548</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5465,8 +5393,8 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="17" t="s">
-        <v>549</v>
+      <c r="C7" s="16" t="s">
+        <v>545</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5487,34 +5415,34 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="17" t="s">
-        <v>550</v>
+      <c r="C8" s="16" t="s">
+        <v>546</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>205</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5579,7 +5507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5E3869-2369-5644-A00D-6AA078FB1D13}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -5593,167 +5521,167 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F2" t="s">
+        <v>556</v>
+      </c>
+      <c r="G2" t="s">
         <v>553</v>
       </c>
-      <c r="F2" t="s">
-        <v>560</v>
-      </c>
-      <c r="G2" t="s">
-        <v>557</v>
-      </c>
       <c r="H2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="I3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B4" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D4" t="s">
         <v>563</v>
       </c>
-      <c r="D4" t="s">
-        <v>567</v>
-      </c>
       <c r="E4" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F4" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G4" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E5" t="s">
+        <v>571</v>
+      </c>
+      <c r="F5" t="s">
+        <v>557</v>
+      </c>
+      <c r="G5" t="s">
+        <v>569</v>
+      </c>
+      <c r="H5" t="s">
+        <v>554</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>570</v>
-      </c>
-      <c r="E5" t="s">
-        <v>575</v>
-      </c>
-      <c r="F5" t="s">
-        <v>561</v>
-      </c>
-      <c r="G5" t="s">
-        <v>573</v>
-      </c>
-      <c r="H5" t="s">
-        <v>558</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" t="s">
         <v>566</v>
       </c>
-      <c r="B6" t="s">
-        <v>578</v>
-      </c>
-      <c r="C6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" t="s">
-        <v>570</v>
-      </c>
       <c r="E6" t="s">
+        <v>550</v>
+      </c>
+      <c r="F6" t="s">
+        <v>557</v>
+      </c>
+      <c r="G6" t="s">
+        <v>572</v>
+      </c>
+      <c r="H6" t="s">
         <v>554</v>
       </c>
-      <c r="F6" t="s">
-        <v>561</v>
-      </c>
-      <c r="G6" t="s">
-        <v>576</v>
-      </c>
-      <c r="H6" t="s">
-        <v>558</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -5780,17 +5708,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>269</v>
+      <c r="A1" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5798,7 +5726,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5806,13 +5734,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/simple_1_v2.xlsx
+++ b/tests/integration_test_files/simple_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4DBBC9-8275-164A-9547-CD3A6453028E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48636CF6-3147-5245-A8FF-40609AEDFF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32380" yWindow="5640" windowWidth="33600" windowHeight="19460" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="32380" yWindow="5620" windowWidth="33600" windowHeight="19460" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="587">
   <si>
     <t>Screening</t>
   </si>
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t>endpointDescription</t>
-  </si>
-  <si>
-    <t>endpointPurposeDescription</t>
   </si>
   <si>
     <t>endpointLevel</t>
@@ -1829,6 +1826,21 @@
   </si>
   <si>
     <t>SIMPLE2</t>
+  </si>
+  <si>
+    <t>objectiveLabel</t>
+  </si>
+  <si>
+    <t>objectiveText</t>
+  </si>
+  <si>
+    <t>endpointLabel</t>
+  </si>
+  <si>
+    <t>endpointText</t>
+  </si>
+  <si>
+    <t>endpointPurpose</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1933,9 +1945,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1986,10 +1995,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2307,7 +2316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2323,11 +2332,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>582</v>
+      <c r="A1" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>581</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2335,7 +2344,7 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
@@ -2347,10 +2356,10 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E3"/>
@@ -2359,10 +2368,10 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E4"/>
@@ -2371,10 +2380,10 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E5"/>
@@ -2383,11 +2392,11 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>129</v>
+      <c r="A6" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2395,11 +2404,11 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>130</v>
+      <c r="A7" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2407,11 +2416,11 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>142</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>143</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2419,53 +2428,53 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>137</v>
+      <c r="A9" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9" s="20" t="s">
-        <v>136</v>
+      <c r="H9" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>138</v>
+      <c r="A10" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>139</v>
+      <c r="A11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2473,10 +2482,10 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E13"/>
@@ -2485,11 +2494,11 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>136</v>
+      <c r="A14" s="18" t="s">
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2625,407 +2634,564 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="59.5" customWidth="1"/>
-    <col min="6" max="7" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="70.5" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="K3" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3052,91 +3218,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
         <v>120</v>
       </c>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>121</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
         <v>122</v>
-      </c>
-      <c r="E2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
         <v>153</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
         <v>154</v>
       </c>
-      <c r="C5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>155</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" t="s">
         <v>156</v>
-      </c>
-      <c r="F5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3165,65 +3331,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
         <v>173</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" t="s">
         <v>174</v>
-      </c>
-      <c r="C2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" t="s">
         <v>176</v>
       </c>
-      <c r="B3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>178</v>
-      </c>
-      <c r="G3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3255,138 +3421,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>186</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3412,105 +3578,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>186</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3529,1238 +3695,1238 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="81.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B47" s="24"/>
+      <c r="C47" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="C49" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="C50" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B60" s="24"/>
+      <c r="C60" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B62" s="24"/>
+      <c r="C62" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
+      <c r="B63" s="24"/>
+      <c r="C63" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+      <c r="B64" s="24"/>
+      <c r="C64" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B65" s="24"/>
+      <c r="C65" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B66" s="24"/>
+      <c r="C66" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B67" s="24"/>
+      <c r="C67" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B68" s="24"/>
+      <c r="C68" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B69" s="24"/>
+      <c r="C69" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B71" s="24"/>
+      <c r="C71" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B72" s="24"/>
+      <c r="C72" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B73" s="24"/>
+      <c r="C73" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B74" s="24"/>
+      <c r="C74" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B75" s="24"/>
+      <c r="C75" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B76" s="24"/>
+      <c r="C76" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B77" s="24"/>
+      <c r="C77" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B78" s="24"/>
+      <c r="C78" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B79" s="24"/>
+      <c r="C79" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B80" s="24"/>
+      <c r="C80" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B81" s="24"/>
+      <c r="C81" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B82" s="24"/>
+      <c r="C82" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B83" s="24"/>
+      <c r="C83" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B84" s="24"/>
+      <c r="C84" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B85" s="24"/>
+      <c r="C85" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B86" s="24"/>
+      <c r="C86" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B87" s="24"/>
+      <c r="C87" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" s="24"/>
+      <c r="C88" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B89" s="24"/>
+      <c r="C89" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B90" s="24"/>
+      <c r="C90" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
+      <c r="B91" s="24"/>
+      <c r="C91" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B92" s="24"/>
+      <c r="C92" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B60" s="25"/>
-      <c r="C60" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B67" s="25"/>
-      <c r="C67" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="B70" s="25"/>
-      <c r="C70" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B72" s="25"/>
-      <c r="C72" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B74" s="25"/>
-      <c r="C74" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B75" s="25"/>
-      <c r="C75" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B76" s="25"/>
-      <c r="C76" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B77" s="25"/>
-      <c r="C77" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B78" s="25"/>
-      <c r="C78" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B79" s="25"/>
-      <c r="C79" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B80" s="25"/>
-      <c r="C80" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B82" s="25"/>
-      <c r="C82" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B83" s="25"/>
-      <c r="C83" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B84" s="25"/>
-      <c r="C84" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B85" s="25"/>
-      <c r="C85" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B86" s="25"/>
-      <c r="C86" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="11" t="s">
+      <c r="B93" s="24"/>
+      <c r="C93" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B94" s="24"/>
+      <c r="C94" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="B95" s="24"/>
+      <c r="C95" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="B87" s="25"/>
-      <c r="C87" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B88" s="25"/>
-      <c r="C88" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B89" s="25"/>
-      <c r="C89" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B90" s="25"/>
-      <c r="C90" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B91" s="25"/>
-      <c r="C91" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
+      <c r="B96" s="24"/>
+      <c r="C96" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B97" s="24"/>
+      <c r="C97" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B98" s="24"/>
+      <c r="C98" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B99" s="24"/>
+      <c r="C99" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B100" s="24"/>
+      <c r="C100" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B101" s="24"/>
+      <c r="C101" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B102" s="24"/>
+      <c r="C102" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B103" s="24"/>
+      <c r="C103" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B104" s="24"/>
+      <c r="C104" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B105" s="24"/>
+      <c r="C105" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B106" s="24"/>
+      <c r="C106" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B107" s="24"/>
+      <c r="C107" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="B93" s="25"/>
-      <c r="C93" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B94" s="25"/>
-      <c r="C94" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B95" s="25"/>
-      <c r="C95" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B96" s="25"/>
-      <c r="C96" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B97" s="25"/>
-      <c r="C97" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B98" s="25"/>
-      <c r="C98" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B99" s="25"/>
-      <c r="C99" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="s">
+      <c r="B108" s="24"/>
+      <c r="C108" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B109" s="24"/>
+      <c r="C109" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="B110" s="24"/>
+      <c r="C110" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B111" s="24"/>
+      <c r="C111" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B112" s="24"/>
+      <c r="C112" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="B113" s="24"/>
+      <c r="C113" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B114" s="24"/>
+      <c r="C114" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B115" s="24"/>
+      <c r="C115" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B116" s="24"/>
+      <c r="C116" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B117" s="24"/>
+      <c r="C117" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B118" s="24"/>
+      <c r="C118" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B119" s="24"/>
+      <c r="C119" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B120" s="24"/>
+      <c r="C120" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B121" s="24"/>
+      <c r="C121" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="B122" s="24"/>
+      <c r="C122" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B123" s="24"/>
+      <c r="C123" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B124" s="24"/>
+      <c r="C124" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B100" s="25"/>
-      <c r="C100" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B101" s="25"/>
-      <c r="C101" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="B102" s="25"/>
-      <c r="C102" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="B103" s="25"/>
-      <c r="C103" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B104" s="25"/>
-      <c r="C104" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="B105" s="25"/>
-      <c r="C105" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="B106" s="25"/>
-      <c r="C106" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B107" s="25"/>
-      <c r="C107" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B108" s="25"/>
-      <c r="C108" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B109" s="25"/>
-      <c r="C109" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B110" s="25"/>
-      <c r="C110" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="B111" s="25"/>
-      <c r="C111" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B112" s="25"/>
-      <c r="C112" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="11" t="s">
+      <c r="B125" s="24"/>
+      <c r="C125" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B126" s="24"/>
+      <c r="C126" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B127" s="24"/>
+      <c r="C127" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B128" s="24"/>
+      <c r="C128" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B129" s="24"/>
+      <c r="C129" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B130" s="24"/>
+      <c r="C130" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="B131" s="24"/>
+      <c r="C131" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B132" s="24"/>
+      <c r="C132" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="B113" s="25"/>
-      <c r="C113" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A114" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B114" s="25"/>
-      <c r="C114" s="10" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B115" s="25"/>
-      <c r="C115" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B116" s="25"/>
-      <c r="C116" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B117" s="25"/>
-      <c r="C117" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B118" s="25"/>
-      <c r="C118" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B119" s="25"/>
-      <c r="C119" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="B120" s="25"/>
-      <c r="C120" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="B121" s="25"/>
-      <c r="C121" s="10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B122" s="25"/>
-      <c r="C122" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B123" s="25"/>
-      <c r="C123" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="B124" s="25"/>
-      <c r="C124" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B125" s="25"/>
-      <c r="C125" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B126" s="25"/>
-      <c r="C126" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B127" s="25"/>
-      <c r="C127" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B128" s="25"/>
-      <c r="C128" s="10" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B129" s="25"/>
-      <c r="C129" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B130" s="25"/>
-      <c r="C130" s="10" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B131" s="25"/>
-      <c r="C131" s="10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B132" s="25"/>
-      <c r="C132" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="11" t="s">
-        <v>534</v>
-      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="11" t="s">
-        <v>534</v>
+      <c r="A134" s="10" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="11" t="s">
-        <v>534</v>
+      <c r="A135" s="10" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="11" t="s">
-        <v>534</v>
+      <c r="A136" s="10" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="11" t="s">
-        <v>534</v>
+      <c r="A137" s="10" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="11" t="s">
-        <v>534</v>
+      <c r="A138" s="10" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -4784,18 +4950,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
         <v>148</v>
-      </c>
-      <c r="B2" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4821,22 +4987,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4851,7 +5017,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -4871,7 +5037,7 @@
         <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -4901,116 +5067,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>206</v>
+      <c r="A12" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>28</v>
@@ -5030,16 +5196,16 @@
         <v>26</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5047,16 +5213,16 @@
         <v>27</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5073,16 +5239,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5106,20 +5272,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>255</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5127,16 +5293,16 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5147,17 +5313,17 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="11"/>
+      <c r="E4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5180,14 +5346,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>242</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5195,10 +5361,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5206,10 +5372,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5217,10 +5383,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5228,10 +5394,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -5260,69 +5426,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>467</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>559</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>539</v>
+      <c r="C3" s="15" t="s">
+        <v>538</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5331,58 +5497,58 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="15"/>
+      <c r="C4" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="C6" s="15" t="s">
         <v>547</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="C6" s="16" t="s">
-        <v>548</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5391,10 +5557,10 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16" t="s">
-        <v>545</v>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="15" t="s">
+        <v>544</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5413,36 +5579,36 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="16" t="s">
-        <v>546</v>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="15" t="s">
+        <v>545</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5521,167 +5687,167 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>541</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G2" t="s">
+        <v>552</v>
+      </c>
+      <c r="H2" t="s">
         <v>553</v>
-      </c>
-      <c r="H2" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D3" t="s">
+        <v>543</v>
+      </c>
+      <c r="E3" t="s">
         <v>555</v>
       </c>
-      <c r="B3" t="s">
-        <v>576</v>
-      </c>
-      <c r="C3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D3" t="s">
-        <v>544</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>556</v>
-      </c>
-      <c r="F3" t="s">
-        <v>557</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D5" t="s">
+        <v>565</v>
+      </c>
+      <c r="E5" t="s">
+        <v>570</v>
+      </c>
+      <c r="F5" t="s">
+        <v>556</v>
+      </c>
+      <c r="G5" t="s">
         <v>568</v>
       </c>
-      <c r="D5" t="s">
-        <v>566</v>
-      </c>
-      <c r="E5" t="s">
-        <v>571</v>
-      </c>
-      <c r="F5" t="s">
-        <v>557</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>553</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>569</v>
-      </c>
-      <c r="H5" t="s">
-        <v>554</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E6" t="s">
+        <v>549</v>
+      </c>
+      <c r="F6" t="s">
+        <v>556</v>
+      </c>
+      <c r="G6" t="s">
+        <v>571</v>
+      </c>
+      <c r="H6" t="s">
+        <v>553</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>566</v>
-      </c>
-      <c r="E6" t="s">
-        <v>550</v>
-      </c>
-      <c r="F6" t="s">
-        <v>557</v>
-      </c>
-      <c r="G6" t="s">
-        <v>572</v>
-      </c>
-      <c r="H6" t="s">
-        <v>554</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -5708,17 +5874,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>264</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5726,7 +5892,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5734,13 +5900,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" t="s">
         <v>267</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5768,7 +5934,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>46</v>
@@ -5782,7 +5948,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
@@ -5796,7 +5962,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
@@ -5810,7 +5976,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
@@ -5824,7 +5990,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>

--- a/tests/integration_test_files/simple_1_v2.xlsx
+++ b/tests/integration_test_files/simple_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48636CF6-3147-5245-A8FF-40609AEDFF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230743CE-554E-CD4B-A053-FF59492CBB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32380" yWindow="5620" windowWidth="33600" windowHeight="19460" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="58360" yWindow="4400" windowWidth="33600" windowHeight="19460" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>trialTypes</t>
   </si>
   <si>
-    <t>line|city|district|state|postal_code|GBR</t>
-  </si>
-  <si>
     <t>DUNS</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
   </si>
   <si>
     <t>AP1234</t>
-  </si>
-  <si>
-    <t>Somewhere|In a City|In a District|In a big state|12345|FRA</t>
   </si>
   <si>
     <t>organisationAddress</t>
@@ -1841,6 +1835,12 @@
   </si>
   <si>
     <t>endpointPurpose</t>
+  </si>
+  <si>
+    <t>line|district|city|state|postal_code|GBR</t>
+  </si>
+  <si>
+    <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
 </sst>
 </file>
@@ -1995,10 +1995,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2333,10 +2333,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -2384,7 +2384,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -2393,10 +2393,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2405,10 +2405,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2417,10 +2417,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2429,52 +2429,52 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>15</v>
@@ -2495,10 +2495,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2559,72 +2559,72 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
         <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2636,7 +2636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -2656,85 +2656,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>582</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>583</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="J1" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>73</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>584</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>585</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>586</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2743,16 +2743,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2761,16 +2761,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2779,16 +2779,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2797,16 +2797,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2815,16 +2815,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2833,16 +2833,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2851,16 +2851,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2869,16 +2869,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2887,16 +2887,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2905,16 +2905,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3219,90 +3219,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
         <v>119</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>123</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" t="s">
         <v>120</v>
-      </c>
-      <c r="D2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
         <v>152</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>153</v>
       </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" t="s">
         <v>154</v>
-      </c>
-      <c r="E5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3331,65 +3331,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>169</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" t="s">
         <v>172</v>
-      </c>
-      <c r="B2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>176</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3422,137 +3422,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>184</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3579,104 +3579,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3703,16 +3703,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3721,1212 +3721,1212 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>535</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B110" s="24"/>
       <c r="C110" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B111" s="24"/>
       <c r="C111" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B112" s="24"/>
       <c r="C112" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B113" s="24"/>
       <c r="C113" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B114" s="24"/>
       <c r="C114" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B116" s="24"/>
       <c r="C116" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B117" s="24"/>
       <c r="C117" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B129" s="24"/>
       <c r="C129" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B130" s="24"/>
       <c r="C130" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B131" s="24"/>
       <c r="C131" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -4950,18 +4950,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" t="s">
         <v>147</v>
-      </c>
-      <c r="B1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4973,8 +4973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5003,7 +5003,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5017,33 +5017,33 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -5068,10 +5068,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -5079,10 +5079,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -5092,41 +5092,41 @@
       <c r="A3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -5137,7 +5137,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -5148,7 +5148,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -5156,10 +5156,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>28</v>
@@ -5196,16 +5196,16 @@
         <v>26</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5213,16 +5213,16 @@
         <v>27</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5239,16 +5239,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5273,19 +5273,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>253</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5293,16 +5293,16 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5313,13 +5313,13 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5347,13 +5347,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>240</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5361,10 +5361,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5372,10 +5372,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5383,10 +5383,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5394,10 +5394,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -5427,68 +5427,68 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5497,58 +5497,58 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5560,7 +5560,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5582,22 +5582,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5608,7 +5608,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5619,7 +5619,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -5687,167 +5687,167 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>539</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F3" t="s">
         <v>554</v>
-      </c>
-      <c r="B3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C3" t="s">
-        <v>577</v>
-      </c>
-      <c r="D3" t="s">
-        <v>543</v>
-      </c>
-      <c r="E3" t="s">
-        <v>555</v>
-      </c>
-      <c r="F3" t="s">
-        <v>556</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D4" t="s">
+        <v>560</v>
+      </c>
+      <c r="E4" t="s">
+        <v>554</v>
+      </c>
+      <c r="F4" t="s">
+        <v>554</v>
+      </c>
+      <c r="G4" t="s">
         <v>562</v>
-      </c>
-      <c r="E4" t="s">
-        <v>556</v>
-      </c>
-      <c r="F4" t="s">
-        <v>556</v>
-      </c>
-      <c r="G4" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C5" t="s">
+        <v>565</v>
+      </c>
+      <c r="D5" t="s">
+        <v>563</v>
+      </c>
+      <c r="E5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F5" t="s">
+        <v>554</v>
+      </c>
+      <c r="G5" t="s">
+        <v>566</v>
+      </c>
+      <c r="H5" t="s">
+        <v>551</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>567</v>
-      </c>
-      <c r="D5" t="s">
-        <v>565</v>
-      </c>
-      <c r="E5" t="s">
-        <v>570</v>
-      </c>
-      <c r="F5" t="s">
-        <v>556</v>
-      </c>
-      <c r="G5" t="s">
-        <v>568</v>
-      </c>
-      <c r="H5" t="s">
-        <v>553</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -5875,16 +5875,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>262</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5892,7 +5892,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5900,13 +5900,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5934,72 +5934,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/simple_1_v2.xlsx
+++ b/tests/integration_test_files/simple_1_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230743CE-554E-CD4B-A053-FF59492CBB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE3487D-6B52-6343-9E84-06FA0FDA7FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58360" yWindow="4400" windowWidth="33600" windowHeight="19460" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="58360" yWindow="4400" windowWidth="33600" windowHeight="19460" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -21,15 +21,16 @@
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
     <sheet name="studyDesignTiming" sheetId="18" r:id="rId7"/>
     <sheet name="studyDesignActivities" sheetId="16" r:id="rId8"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId9"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId16"/>
-    <sheet name="configuration" sheetId="10" r:id="rId17"/>
+    <sheet name="studyDesignInterventions" sheetId="19" r:id="rId9"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId10"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId11"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId12"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId13"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId14"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId15"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId16"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId17"/>
+    <sheet name="configuration" sheetId="10" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="624">
   <si>
     <t>Screening</t>
   </si>
@@ -189,34 +190,16 @@
     <t>type</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>codes</t>
   </si>
   <si>
-    <t>An indication</t>
-  </si>
-  <si>
     <t>SNOMED:12345=Indication1</t>
   </si>
   <si>
-    <t>An intervention</t>
-  </si>
-  <si>
-    <t>ICD-10: X = Y, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>SNOMED:345678=Indication2</t>
-  </si>
-  <si>
-    <t>ICD-10: DD=CC, SNOMED: A=B</t>
   </si>
   <si>
     <t>populationDescription</t>
@@ -1842,12 +1825,141 @@
   <si>
     <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
+  <si>
+    <t>Indication One</t>
+  </si>
+  <si>
+    <t>Indication 1</t>
+  </si>
+  <si>
+    <t>Indication Two</t>
+  </si>
+  <si>
+    <t>Indication 2</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>Int Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 1</t>
+  </si>
+  <si>
+    <t>SPONSOR: A=B</t>
+  </si>
+  <si>
+    <t>M11: role1=role1</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>FDA: A=B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig1=desig_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Day</t>
+  </si>
+  <si>
+    <t>Admin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 1</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>12 mg</t>
+  </si>
+  <si>
+    <t>10 DAYS PER MONTH</t>
+  </si>
+  <si>
+    <t>Dur desc 1</t>
+  </si>
+  <si>
+    <t>Will vary becuase we say so</t>
+  </si>
+  <si>
+    <t>14 %</t>
+  </si>
+  <si>
+    <t>Int Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 2</t>
+  </si>
+  <si>
+    <t>M11: role2=role2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig2=desig_2</t>
+  </si>
+  <si>
+    <t>Admin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 2</t>
+  </si>
+  <si>
+    <t>Dur desc 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1891,6 +2003,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1924,7 +2042,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1995,11 +2113,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2333,10 +2453,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2393,10 +2513,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2405,10 +2525,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2417,10 +2537,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2429,52 +2549,52 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>134</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2483,7 +2603,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>15</v>
@@ -2495,10 +2615,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2541,6 +2661,68 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -2559,72 +2741,72 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
         <v>59</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2632,7 +2814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -2656,85 +2838,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2743,16 +2925,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2761,16 +2943,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2779,16 +2961,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2797,16 +2979,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2815,16 +2997,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2833,16 +3015,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2851,16 +3033,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2869,16 +3051,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2887,16 +3069,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2905,16 +3087,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3199,7 +3381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -3219,90 +3401,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
         <v>117</v>
       </c>
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" t="s">
-        <v>123</v>
-      </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
         <v>96</v>
       </c>
-      <c r="G5" t="s">
-        <v>102</v>
-      </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3310,7 +3492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3331,65 +3513,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3402,7 +3584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -3422,137 +3604,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>178</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3561,7 +3743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3579,104 +3761,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3685,7 +3867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D138"/>
   <sheetViews>
@@ -3703,16 +3885,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3721,1212 +3903,1212 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="9" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="9" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="9" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="9" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="9" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="9" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="9" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="9" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="9" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="9" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="9" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="9" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="9" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="9" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="9" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="9" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="9" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="9" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="9" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="9" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="9" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="9" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="9" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="9" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="9" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="9" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="9" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="9" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="9" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="9" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="9" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="9" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="9" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B110" s="24"/>
       <c r="C110" s="9" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B111" s="24"/>
       <c r="C111" s="9" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B112" s="24"/>
       <c r="C112" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B113" s="24"/>
       <c r="C113" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B114" s="24"/>
       <c r="C114" s="9" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="9" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B116" s="24"/>
       <c r="C116" s="9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B117" s="24"/>
       <c r="C117" s="9" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="9" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="9" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="9" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="9" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="9" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="9" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="9" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="9" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="9" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B129" s="24"/>
       <c r="C129" s="9" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B130" s="24"/>
       <c r="C130" s="9" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B131" s="24"/>
       <c r="C131" s="9" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="9" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -4935,7 +5117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4950,18 +5132,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4973,7 +5155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
@@ -5017,13 +5199,13 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5037,13 +5219,13 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -5068,10 +5250,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -5079,10 +5261,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -5092,41 +5274,41 @@
       <c r="A3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="B3" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -5137,7 +5319,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -5148,7 +5330,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -5156,10 +5338,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -5167,7 +5349,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -5176,7 +5358,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>28</v>
@@ -5196,16 +5378,16 @@
         <v>26</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5213,16 +5395,16 @@
         <v>27</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5239,16 +5421,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5273,19 +5455,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5293,16 +5475,16 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5313,13 +5495,13 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5347,13 +5529,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5361,10 +5543,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5372,10 +5554,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5383,10 +5565,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5394,10 +5576,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -5427,68 +5609,68 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5497,10 +5679,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5509,46 +5691,46 @@
         <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5560,7 +5742,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5582,22 +5764,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5608,7 +5790,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5687,167 +5869,167 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="H2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B3" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C3" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E3" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F3" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="I3" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B4" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D4" t="s">
+        <v>554</v>
+      </c>
+      <c r="E4" t="s">
+        <v>548</v>
+      </c>
+      <c r="F4" t="s">
+        <v>548</v>
+      </c>
+      <c r="G4" t="s">
         <v>556</v>
-      </c>
-      <c r="D4" t="s">
-        <v>560</v>
-      </c>
-      <c r="E4" t="s">
-        <v>554</v>
-      </c>
-      <c r="F4" t="s">
-        <v>554</v>
-      </c>
-      <c r="G4" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B5" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C5" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D5" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="E5" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="F5" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G5" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H5" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B6" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E6" t="s">
+        <v>541</v>
+      </c>
+      <c r="F6" t="s">
+        <v>548</v>
+      </c>
+      <c r="G6" t="s">
         <v>563</v>
       </c>
-      <c r="E6" t="s">
-        <v>547</v>
-      </c>
-      <c r="F6" t="s">
-        <v>554</v>
-      </c>
-      <c r="G6" t="s">
-        <v>569</v>
-      </c>
       <c r="H6" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -5875,16 +6057,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5892,7 +6074,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5900,13 +6082,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5919,87 +6101,212 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE0D94B-E29E-5042-A6E5-295C4913B48C}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G1" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>590</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>599</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="D2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="G2" t="s">
+        <v>604</v>
+      </c>
+      <c r="H2" t="s">
+        <v>605</v>
+      </c>
+      <c r="I2" t="s">
+        <v>606</v>
+      </c>
+      <c r="J2" t="s">
+        <v>607</v>
+      </c>
+      <c r="K2" t="s">
+        <v>608</v>
+      </c>
+      <c r="L2" t="s">
+        <v>609</v>
+      </c>
+      <c r="M2" t="s">
+        <v>610</v>
+      </c>
+      <c r="N2" t="s">
+        <v>611</v>
+      </c>
+      <c r="O2" t="s">
+        <v>612</v>
+      </c>
+      <c r="P2" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>169</v>
+      </c>
+      <c r="R2" t="s">
+        <v>614</v>
+      </c>
+      <c r="S2" s="30" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>616</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>617</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
+        <v>601</v>
+      </c>
+      <c r="E3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>603</v>
+      </c>
+      <c r="G3" t="s">
+        <v>604</v>
+      </c>
+      <c r="H3" t="s">
+        <v>619</v>
+      </c>
+      <c r="I3" t="s">
+        <v>606</v>
+      </c>
+      <c r="J3" t="s">
+        <v>620</v>
+      </c>
+      <c r="K3" t="s">
+        <v>621</v>
+      </c>
+      <c r="L3" t="s">
+        <v>622</v>
+      </c>
+      <c r="M3" t="s">
+        <v>610</v>
+      </c>
+      <c r="N3" t="s">
+        <v>611</v>
+      </c>
+      <c r="O3" t="s">
+        <v>612</v>
+      </c>
+      <c r="P3" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>169</v>
+      </c>
+      <c r="R3" t="s">
+        <v>614</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/simple_1_v2.xlsx
+++ b/tests/integration_test_files/simple_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE3487D-6B52-6343-9E84-06FA0FDA7FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5556CA92-28B0-6E47-B2A0-396D8CC17DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58360" yWindow="4400" windowWidth="33600" windowHeight="19460" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="58360" yWindow="4400" windowWidth="33600" windowHeight="19460" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="626">
   <si>
     <t>Screening</t>
   </si>
@@ -205,46 +205,16 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>Pop 1</t>
-  </si>
-  <si>
-    <t>plannedNumberOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMinimumAgeOfParticipants</t>
-  </si>
-  <si>
     <t>18 years</t>
   </si>
   <si>
-    <t>40 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>Pop 2</t>
-  </si>
-  <si>
-    <t>60 years</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Pop 3</t>
-  </si>
-  <si>
     <t>70 years</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>plannedMaximumAgeOfParticipants</t>
   </si>
   <si>
     <t>objectiveDescription</t>
@@ -1953,6 +1923,42 @@
   </si>
   <si>
     <t>Dur desc 2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>plannedMinimumAge</t>
+  </si>
+  <si>
+    <t>plannedMaximumAge</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>POP1</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>COHORT1</t>
+  </si>
+  <si>
+    <t>30 years</t>
+  </si>
+  <si>
+    <t>COHORT2</t>
+  </si>
+  <si>
+    <t>31 years</t>
   </si>
 </sst>
 </file>
@@ -2109,17 +2115,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2453,10 +2459,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2513,10 +2519,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2525,10 +2531,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2537,10 +2543,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2549,52 +2555,52 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="19" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2603,7 +2609,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>15</v>
@@ -2615,10 +2621,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2664,7 +2670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -2677,13 +2683,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>46</v>
@@ -2691,13 +2697,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C2" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>47</v>
@@ -2705,13 +2711,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C3" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>48</v>
@@ -2724,89 +2730,96 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>618</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B3" t="s">
+        <v>622</v>
+      </c>
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H3" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B4" t="s">
+        <v>624</v>
+      </c>
+      <c r="G4" t="s">
+        <v>625</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2838,85 +2851,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2925,16 +2938,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2943,16 +2956,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2961,16 +2974,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2979,16 +2992,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2997,16 +3010,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3015,16 +3028,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3033,16 +3046,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3051,16 +3064,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3069,16 +3082,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3087,16 +3100,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3401,90 +3414,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3513,65 +3526,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3604,137 +3617,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3761,104 +3774,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3885,16 +3898,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3903,1212 +3916,1212 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="9" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="9" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="9" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="9" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="9" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="9" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="9" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="9" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="9" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="9" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="9" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="9" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="9" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="9" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="9" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="9" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="9" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="9" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="9" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="9" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="9" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="9" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="9" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="9" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="9" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="9" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="9" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="9" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="9" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="9" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="9" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="9" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="9" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="9" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="9" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="9" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="9" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="9" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="9" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="9" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="9" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="9" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="9" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="9" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="9" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="9" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="9" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="9" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="9" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="9" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="9" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="9" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="9" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="9" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="9" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="9" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="9" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="9" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="9" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="9" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="9" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="9" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="9" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="9" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="9" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="9" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="9" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="9" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="9" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="9" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="9" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="9" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="9" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="9" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="9" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="9" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="9" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="9" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="9" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="9" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="9" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="9" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="9" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="9" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="9" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="9" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="9" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="9" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="9" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="9" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B110" s="24"/>
       <c r="C110" s="9" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B111" s="24"/>
       <c r="C111" s="9" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B112" s="24"/>
       <c r="C112" s="9" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B113" s="24"/>
       <c r="C113" s="9" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B114" s="24"/>
       <c r="C114" s="9" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="9" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B116" s="24"/>
       <c r="C116" s="9" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B117" s="24"/>
       <c r="C117" s="9" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="9" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="9" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="9" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="9" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="9" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="9" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="9" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="9" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="9" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="9" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="9" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B129" s="24"/>
       <c r="C129" s="9" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B130" s="24"/>
       <c r="C130" s="9" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B131" s="24"/>
       <c r="C131" s="9" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="9" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -5132,18 +5145,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5199,13 +5212,13 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5219,13 +5232,13 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -5250,115 +5263,115 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+        <v>214</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+        <v>215</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="B6" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="B7" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="B8" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+        <v>142</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+        <v>143</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>28</v>
@@ -5378,16 +5391,16 @@
         <v>26</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5395,16 +5408,16 @@
         <v>27</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5421,16 +5434,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5455,19 +5468,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5475,16 +5488,16 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5495,13 +5508,13 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5529,13 +5542,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5543,10 +5556,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5554,10 +5567,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5565,10 +5578,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5576,10 +5589,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -5609,36 +5622,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>45</v>
@@ -5647,30 +5660,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>559</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5679,10 +5692,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5691,46 +5704,46 @@
         <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>548</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5742,7 +5755,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5764,22 +5777,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5790,7 +5803,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5869,167 +5882,167 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B2" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F2" t="s">
+        <v>537</v>
+      </c>
+      <c r="G2" t="s">
+        <v>534</v>
+      </c>
+      <c r="H2" t="s">
         <v>535</v>
-      </c>
-      <c r="E2" t="s">
-        <v>540</v>
-      </c>
-      <c r="F2" t="s">
-        <v>547</v>
-      </c>
-      <c r="G2" t="s">
-        <v>544</v>
-      </c>
-      <c r="H2" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B3" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="C3" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="D3" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="E3" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F3" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
+        <v>535</v>
+      </c>
+      <c r="I3" t="s">
         <v>545</v>
-      </c>
-      <c r="I3" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B4" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C4" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="D4" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E4" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="F4" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G4" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C5" t="s">
+        <v>549</v>
+      </c>
+      <c r="D5" t="s">
+        <v>547</v>
+      </c>
+      <c r="E5" t="s">
         <v>552</v>
       </c>
-      <c r="B5" t="s">
-        <v>564</v>
-      </c>
-      <c r="C5" t="s">
-        <v>559</v>
-      </c>
-      <c r="D5" t="s">
-        <v>557</v>
-      </c>
-      <c r="E5" t="s">
-        <v>562</v>
-      </c>
       <c r="F5" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G5" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="H5" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" t="s">
+        <v>547</v>
+      </c>
+      <c r="E6" t="s">
+        <v>531</v>
+      </c>
+      <c r="F6" t="s">
+        <v>538</v>
+      </c>
+      <c r="G6" t="s">
         <v>553</v>
       </c>
-      <c r="B6" t="s">
-        <v>565</v>
-      </c>
-      <c r="C6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" t="s">
-        <v>557</v>
-      </c>
-      <c r="E6" t="s">
-        <v>541</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>535</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>548</v>
-      </c>
-      <c r="G6" t="s">
-        <v>563</v>
-      </c>
-      <c r="H6" t="s">
-        <v>545</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -6057,16 +6070,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6074,7 +6087,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6082,13 +6095,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6134,179 +6147,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>44</v>
       </c>
       <c r="G1" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>584</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q1" s="22" t="s">
         <v>586</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>587</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>588</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>589</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>590</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>591</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>592</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>593</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>594</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>596</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="G2" t="s">
+        <v>594</v>
+      </c>
+      <c r="H2" t="s">
+        <v>595</v>
+      </c>
+      <c r="I2" t="s">
+        <v>596</v>
+      </c>
+      <c r="J2" t="s">
+        <v>597</v>
+      </c>
+      <c r="K2" t="s">
+        <v>598</v>
+      </c>
+      <c r="L2" t="s">
         <v>599</v>
       </c>
-      <c r="C2" t="s">
+      <c r="M2" t="s">
         <v>600</v>
       </c>
-      <c r="D2" t="s">
+      <c r="N2" t="s">
         <v>601</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>602</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="P2" t="s">
         <v>603</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
+        <v>159</v>
+      </c>
+      <c r="R2" t="s">
         <v>604</v>
       </c>
-      <c r="H2" t="s">
+      <c r="S2" s="27" t="s">
         <v>605</v>
-      </c>
-      <c r="I2" t="s">
-        <v>606</v>
-      </c>
-      <c r="J2" t="s">
-        <v>607</v>
-      </c>
-      <c r="K2" t="s">
-        <v>608</v>
-      </c>
-      <c r="L2" t="s">
-        <v>609</v>
-      </c>
-      <c r="M2" t="s">
-        <v>610</v>
-      </c>
-      <c r="N2" t="s">
-        <v>611</v>
-      </c>
-      <c r="O2" t="s">
-        <v>612</v>
-      </c>
-      <c r="P2" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>169</v>
-      </c>
-      <c r="R2" t="s">
-        <v>614</v>
-      </c>
-      <c r="S2" s="30" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C3" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="D3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E3" t="s">
+        <v>608</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="G3" t="s">
+        <v>594</v>
+      </c>
+      <c r="H3" t="s">
+        <v>609</v>
+      </c>
+      <c r="I3" t="s">
+        <v>596</v>
+      </c>
+      <c r="J3" t="s">
+        <v>610</v>
+      </c>
+      <c r="K3" t="s">
+        <v>611</v>
+      </c>
+      <c r="L3" t="s">
+        <v>612</v>
+      </c>
+      <c r="M3" t="s">
+        <v>600</v>
+      </c>
+      <c r="N3" t="s">
         <v>601</v>
       </c>
-      <c r="E3" t="s">
-        <v>618</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>603</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
+        <v>602</v>
+      </c>
+      <c r="P3" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R3" t="s">
         <v>604</v>
       </c>
-      <c r="H3" t="s">
-        <v>619</v>
-      </c>
-      <c r="I3" t="s">
-        <v>606</v>
-      </c>
-      <c r="J3" t="s">
-        <v>620</v>
-      </c>
-      <c r="K3" t="s">
-        <v>621</v>
-      </c>
-      <c r="L3" t="s">
-        <v>622</v>
-      </c>
-      <c r="M3" t="s">
-        <v>610</v>
-      </c>
-      <c r="N3" t="s">
-        <v>611</v>
-      </c>
-      <c r="O3" t="s">
-        <v>612</v>
-      </c>
-      <c r="P3" t="s">
-        <v>623</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>169</v>
-      </c>
-      <c r="R3" t="s">
-        <v>614</v>
-      </c>
-      <c r="S3" s="30" t="s">
-        <v>615</v>
+      <c r="S3" s="27" t="s">
+        <v>605</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/simple_1_v2.xlsx
+++ b/tests/integration_test_files/simple_1_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5556CA92-28B0-6E47-B2A0-396D8CC17DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B64EB6F-C83A-F440-BC6C-FEBCC5986AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="58360" yWindow="4400" windowWidth="33600" windowHeight="19460" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="623">
   <si>
     <t>Screening</t>
   </si>
@@ -205,16 +205,10 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>18 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
-  </si>
-  <si>
-    <t>70 years</t>
   </si>
   <si>
     <t>objectiveDescription</t>
@@ -1934,12 +1928,6 @@
     <t>plannedEnrollmentNumber</t>
   </si>
   <si>
-    <t>plannedMinimumAge</t>
-  </si>
-  <si>
-    <t>plannedMaximumAge</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -1952,13 +1940,16 @@
     <t>COHORT1</t>
   </si>
   <si>
-    <t>30 years</t>
-  </si>
-  <si>
     <t>COHORT2</t>
   </si>
   <si>
-    <t>31 years</t>
+    <t>plannedAge</t>
+  </si>
+  <si>
+    <t>18 .. 30 years</t>
+  </si>
+  <si>
+    <t>31 .. 70 years</t>
   </si>
 </sst>
 </file>
@@ -2121,10 +2112,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2459,10 +2450,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2519,10 +2510,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2531,10 +2522,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2543,10 +2534,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2555,52 +2546,52 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2609,7 +2600,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>15</v>
@@ -2621,10 +2612,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2683,13 +2674,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>46</v>
@@ -2697,13 +2688,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>47</v>
@@ -2711,13 +2702,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>48</v>
@@ -2730,10 +2721,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2743,45 +2734,42 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>620</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>615</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="B2" t="s">
         <v>616</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>617</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>618</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B2" t="s">
-        <v>620</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2789,37 +2777,30 @@
       <c r="F2">
         <v>120</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B3" t="s">
+        <v>618</v>
+      </c>
+      <c r="G3" t="s">
         <v>621</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B4" t="s">
+        <v>619</v>
+      </c>
+      <c r="G4" t="s">
         <v>622</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B4" t="s">
-        <v>624</v>
-      </c>
-      <c r="G4" t="s">
-        <v>625</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2851,85 +2832,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>564</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>565</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="J1" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>566</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>567</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>568</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2938,16 +2919,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2956,16 +2937,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2974,16 +2955,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2992,16 +2973,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3010,16 +2991,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3028,16 +3009,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3046,16 +3027,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3064,16 +3045,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3082,16 +3063,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3100,16 +3081,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3414,90 +3395,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>100</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>105</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
         <v>102</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
         <v>134</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>135</v>
       </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
         <v>136</v>
-      </c>
-      <c r="E5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3526,65 +3507,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" t="s">
         <v>154</v>
-      </c>
-      <c r="B2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>158</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3617,137 +3598,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>166</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3774,104 +3755,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3898,16 +3879,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3916,1212 +3897,1212 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>517</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B110" s="24"/>
       <c r="C110" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B111" s="24"/>
       <c r="C111" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B112" s="24"/>
       <c r="C112" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B113" s="24"/>
       <c r="C113" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B114" s="24"/>
       <c r="C114" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B116" s="24"/>
       <c r="C116" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B117" s="24"/>
       <c r="C117" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B129" s="24"/>
       <c r="C129" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B130" s="24"/>
       <c r="C130" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B131" s="24"/>
       <c r="C131" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -5145,18 +5126,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
         <v>129</v>
-      </c>
-      <c r="B1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5212,13 +5193,13 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5232,13 +5213,13 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -5263,10 +5244,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -5274,10 +5255,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -5287,41 +5268,41 @@
       <c r="A3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -5332,7 +5313,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -5343,7 +5324,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -5351,10 +5332,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -5362,7 +5343,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -5371,7 +5352,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>28</v>
@@ -5391,16 +5372,16 @@
         <v>26</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5408,16 +5389,16 @@
         <v>27</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5434,16 +5415,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5468,19 +5449,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>235</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5488,16 +5469,16 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5508,13 +5489,13 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5542,13 +5523,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>222</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5556,10 +5537,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5567,10 +5548,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5578,10 +5559,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5589,10 +5570,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5622,36 +5603,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>45</v>
@@ -5660,30 +5641,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5692,10 +5673,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5704,46 +5685,46 @@
         <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5755,7 +5736,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5777,22 +5758,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5803,7 +5784,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5882,167 +5863,167 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>521</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F3" t="s">
         <v>536</v>
-      </c>
-      <c r="B3" t="s">
-        <v>557</v>
-      </c>
-      <c r="C3" t="s">
-        <v>559</v>
-      </c>
-      <c r="D3" t="s">
-        <v>525</v>
-      </c>
-      <c r="E3" t="s">
-        <v>537</v>
-      </c>
-      <c r="F3" t="s">
-        <v>538</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E4" t="s">
+        <v>536</v>
+      </c>
+      <c r="F4" t="s">
+        <v>536</v>
+      </c>
+      <c r="G4" t="s">
         <v>544</v>
-      </c>
-      <c r="E4" t="s">
-        <v>538</v>
-      </c>
-      <c r="F4" t="s">
-        <v>538</v>
-      </c>
-      <c r="G4" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F5" t="s">
+        <v>536</v>
+      </c>
+      <c r="G5" t="s">
+        <v>548</v>
+      </c>
+      <c r="H5" t="s">
+        <v>533</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="D5" t="s">
-        <v>547</v>
-      </c>
-      <c r="E5" t="s">
-        <v>552</v>
-      </c>
-      <c r="F5" t="s">
-        <v>538</v>
-      </c>
-      <c r="G5" t="s">
-        <v>550</v>
-      </c>
-      <c r="H5" t="s">
-        <v>535</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -6070,16 +6051,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>244</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6087,7 +6068,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6095,13 +6076,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6147,179 +6128,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>44</v>
       </c>
       <c r="G1" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>576</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>577</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>578</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>579</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>580</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>581</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>582</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>583</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>585</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>586</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>587</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D2" t="s">
         <v>589</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>590</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="26" t="s">
         <v>591</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>592</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="H2" t="s">
         <v>593</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>594</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>595</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>596</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>597</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>598</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>599</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>600</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>601</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2" t="s">
         <v>602</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="27" t="s">
         <v>603</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>159</v>
-      </c>
-      <c r="R2" t="s">
-        <v>604</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E3" t="s">
         <v>606</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="G3" t="s">
+        <v>592</v>
+      </c>
+      <c r="H3" t="s">
         <v>607</v>
       </c>
-      <c r="D3" t="s">
-        <v>591</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>594</v>
+      </c>
+      <c r="J3" t="s">
         <v>608</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="G3" t="s">
-        <v>594</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>609</v>
       </c>
-      <c r="I3" t="s">
-        <v>596</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>610</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>598</v>
+      </c>
+      <c r="N3" t="s">
+        <v>599</v>
+      </c>
+      <c r="O3" t="s">
+        <v>600</v>
+      </c>
+      <c r="P3" t="s">
         <v>611</v>
       </c>
-      <c r="L3" t="s">
-        <v>612</v>
-      </c>
-      <c r="M3" t="s">
-        <v>600</v>
-      </c>
-      <c r="N3" t="s">
-        <v>601</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" t="s">
         <v>602</v>
       </c>
-      <c r="P3" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>159</v>
-      </c>
-      <c r="R3" t="s">
-        <v>604</v>
-      </c>
       <c r="S3" s="27" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/simple_1_v2.xlsx
+++ b/tests/integration_test_files/simple_1_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B64EB6F-C83A-F440-BC6C-FEBCC5986AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0E4694-9F52-DF44-B7D8-E015C3B33074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58360" yWindow="4400" windowWidth="33600" windowHeight="19460" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="58360" yWindow="4400" windowWidth="33600" windowHeight="19460" firstSheet="9" activeTab="16" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1625,331 +1625,331 @@
     </r>
   </si>
   <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>timingValue</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>TIM1</t>
+  </si>
+  <si>
+    <t>BEFORE</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>SCREEN</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>S2S</t>
+  </si>
+  <si>
+    <t>TIM2</t>
+  </si>
+  <si>
+    <t>PRE DOSE</t>
+  </si>
+  <si>
+    <t>DOSE</t>
+  </si>
+  <si>
+    <t>Pre Dose</t>
+  </si>
+  <si>
+    <t>Dosing</t>
+  </si>
+  <si>
+    <t>TIM3</t>
+  </si>
+  <si>
+    <t>TIM4</t>
+  </si>
+  <si>
+    <t>TIM5</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>0..4 hours</t>
+  </si>
+  <si>
+    <t>1 Day</t>
+  </si>
+  <si>
+    <t>AFTER</t>
+  </si>
+  <si>
+    <t>-3..3 days</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>14 days</t>
+  </si>
+  <si>
+    <t>-1..1 days</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>21 days</t>
+  </si>
+  <si>
+    <t>Day 14 timing</t>
+  </si>
+  <si>
+    <t>Follow up timing</t>
+  </si>
+  <si>
+    <t>Screening timing</t>
+  </si>
+  <si>
+    <t>Pre dose timing</t>
+  </si>
+  <si>
+    <t>Dosing anchor</t>
+  </si>
+  <si>
+    <t>Pre dose</t>
+  </si>
+  <si>
+    <t>(EXIT)</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>toFrom</t>
+  </si>
+  <si>
+    <t>SIMPLE2</t>
+  </si>
+  <si>
+    <t>objectiveLabel</t>
+  </si>
+  <si>
+    <t>objectiveText</t>
+  </si>
+  <si>
+    <t>endpointLabel</t>
+  </si>
+  <si>
+    <t>endpointText</t>
+  </si>
+  <si>
+    <t>endpointPurpose</t>
+  </si>
+  <si>
+    <t>line|district|city|state|postal_code|GBR</t>
+  </si>
+  <si>
+    <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
+  </si>
+  <si>
+    <t>Indication One</t>
+  </si>
+  <si>
+    <t>Indication 1</t>
+  </si>
+  <si>
+    <t>Indication Two</t>
+  </si>
+  <si>
+    <t>Indication 2</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>Int Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 1</t>
+  </si>
+  <si>
+    <t>SPONSOR: A=B</t>
+  </si>
+  <si>
+    <t>M11: role1=role1</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>FDA: A=B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig1=desig_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Day</t>
+  </si>
+  <si>
+    <t>Admin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 1</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>12 mg</t>
+  </si>
+  <si>
+    <t>10 DAYS PER MONTH</t>
+  </si>
+  <si>
+    <t>Dur desc 1</t>
+  </si>
+  <si>
+    <t>Will vary becuase we say so</t>
+  </si>
+  <si>
+    <t>14 %</t>
+  </si>
+  <si>
+    <t>Int Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 2</t>
+  </si>
+  <si>
+    <t>M11: role2=role2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig2=desig_2</t>
+  </si>
+  <si>
+    <t>Admin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 2</t>
+  </si>
+  <si>
+    <t>Dur desc 2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>POP1</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>COHORT1</t>
+  </si>
+  <si>
+    <t>COHORT2</t>
+  </si>
+  <si>
+    <t>plannedAge</t>
+  </si>
+  <si>
+    <t>18 .. 30 years</t>
+  </si>
+  <si>
+    <t>31 .. 70 years</t>
+  </si>
+  <si>
     <t>&lt;table&gt;
   &lt;tr&gt;
     &lt;th style="vertical-align: top"&gt;Primary Objective&lt;/th&gt;
     &lt;th style="vertical-align: top"&gt;Primary Endpoint&lt;/th&gt;
   &lt;/tr&gt;
   &lt;tr&gt;
-    &lt;td style="vertical-align: top"&gt;&lt;usdm:ref klass="Objective" namexref="OBJ1" attribute="description"/&gt;&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;&lt;usdm:macro id="xref" klass="Objective" name="OBJ1" attribute="description"/&gt;&lt;/td&gt;
     &lt;td style="vertical-align: top"&gt;&lt;usdm:ref klass="Endpoint" id="Endpoint_1" attribute="description"/&gt;&lt;/td&gt;
   &lt;/tr&gt;
 &lt;/table&gt;</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>timingValue</t>
-  </si>
-  <si>
-    <t>window</t>
-  </si>
-  <si>
-    <t>TIM1</t>
-  </si>
-  <si>
-    <t>BEFORE</t>
-  </si>
-  <si>
-    <t>epoch</t>
-  </si>
-  <si>
-    <t>encounter</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>SCREEN</t>
-  </si>
-  <si>
-    <t>FU</t>
-  </si>
-  <si>
-    <t>Screen</t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>2 days</t>
-  </si>
-  <si>
-    <t>S2S</t>
-  </si>
-  <si>
-    <t>TIM2</t>
-  </si>
-  <si>
-    <t>PRE DOSE</t>
-  </si>
-  <si>
-    <t>DOSE</t>
-  </si>
-  <si>
-    <t>Pre Dose</t>
-  </si>
-  <si>
-    <t>Dosing</t>
-  </si>
-  <si>
-    <t>TIM3</t>
-  </si>
-  <si>
-    <t>TIM4</t>
-  </si>
-  <si>
-    <t>TIM5</t>
-  </si>
-  <si>
-    <t>FIXED</t>
-  </si>
-  <si>
-    <t>0..4 hours</t>
-  </si>
-  <si>
-    <t>1 Day</t>
-  </si>
-  <si>
-    <t>AFTER</t>
-  </si>
-  <si>
-    <t>-3..3 days</t>
-  </si>
-  <si>
-    <t>Day 14</t>
-  </si>
-  <si>
-    <t>14 days</t>
-  </si>
-  <si>
-    <t>-1..1 days</t>
-  </si>
-  <si>
-    <t>D14</t>
-  </si>
-  <si>
-    <t>21 days</t>
-  </si>
-  <si>
-    <t>Day 14 timing</t>
-  </si>
-  <si>
-    <t>Follow up timing</t>
-  </si>
-  <si>
-    <t>Screening timing</t>
-  </si>
-  <si>
-    <t>Pre dose timing</t>
-  </si>
-  <si>
-    <t>Dosing anchor</t>
-  </si>
-  <si>
-    <t>Pre dose</t>
-  </si>
-  <si>
-    <t>(EXIT)</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>toFrom</t>
-  </si>
-  <si>
-    <t>SIMPLE2</t>
-  </si>
-  <si>
-    <t>objectiveLabel</t>
-  </si>
-  <si>
-    <t>objectiveText</t>
-  </si>
-  <si>
-    <t>endpointLabel</t>
-  </si>
-  <si>
-    <t>endpointText</t>
-  </si>
-  <si>
-    <t>endpointPurpose</t>
-  </si>
-  <si>
-    <t>line|district|city|state|postal_code|GBR</t>
-  </si>
-  <si>
-    <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
-  </si>
-  <si>
-    <t>Indication One</t>
-  </si>
-  <si>
-    <t>Indication 1</t>
-  </si>
-  <si>
-    <t>Indication Two</t>
-  </si>
-  <si>
-    <t>Indication 2</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>pharmacologicalClass</t>
-  </si>
-  <si>
-    <t>productDesignation</t>
-  </si>
-  <si>
-    <t>minimumResponseDuration</t>
-  </si>
-  <si>
-    <t>administrationName</t>
-  </si>
-  <si>
-    <t>administrationDescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  administrationLabel</t>
-  </si>
-  <si>
-    <t>administrationRoute</t>
-  </si>
-  <si>
-    <t>administrationDose</t>
-  </si>
-  <si>
-    <t>administrationFrequency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  administrationDurationDescription</t>
-  </si>
-  <si>
-    <t>administrationDurationWillVary</t>
-  </si>
-  <si>
-    <t>administrationDurationWillVaryReason</t>
-  </si>
-  <si>
-    <t>administrationDurationQuantity</t>
-  </si>
-  <si>
-    <t>Int Desc 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Int Label 1</t>
-  </si>
-  <si>
-    <t>SPONSOR: A=B</t>
-  </si>
-  <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
-    <t>DRUG</t>
-  </si>
-  <si>
-    <t>FDA: A=B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 Day</t>
-  </si>
-  <si>
-    <t>Admin 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Admin Desc 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Admin Label 1</t>
-  </si>
-  <si>
-    <t>DENTAL</t>
-  </si>
-  <si>
-    <t>12 mg</t>
-  </si>
-  <si>
-    <t>10 DAYS PER MONTH</t>
-  </si>
-  <si>
-    <t>Dur desc 1</t>
-  </si>
-  <si>
-    <t>Will vary becuase we say so</t>
-  </si>
-  <si>
-    <t>14 %</t>
-  </si>
-  <si>
-    <t>Int Desc 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Int Label 2</t>
-  </si>
-  <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
-    <t>Admin 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Admin Desc 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Admin Label 2</t>
-  </si>
-  <si>
-    <t>Dur desc 2</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>plannedCompletionNumber</t>
-  </si>
-  <si>
-    <t>plannedEnrollmentNumber</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>POP1</t>
-  </si>
-  <si>
-    <t>Cohort</t>
-  </si>
-  <si>
-    <t>COHORT1</t>
-  </si>
-  <si>
-    <t>COHORT2</t>
-  </si>
-  <si>
-    <t>plannedAge</t>
-  </si>
-  <si>
-    <t>18 .. 30 years</t>
-  </si>
-  <si>
-    <t>31 .. 70 years</t>
   </si>
 </sst>
 </file>
@@ -2112,10 +2112,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2453,7 +2453,7 @@
         <v>446</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2680,7 +2680,7 @@
         <v>45</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>46</v>
@@ -2691,10 +2691,10 @@
         <v>75</v>
       </c>
       <c r="B2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C2" t="s">
         <v>569</v>
-      </c>
-      <c r="C2" t="s">
-        <v>570</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>47</v>
@@ -2705,10 +2705,10 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C3" t="s">
         <v>571</v>
-      </c>
-      <c r="C3" t="s">
-        <v>572</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>48</v>
@@ -2723,7 +2723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -2740,7 +2740,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>446</v>
@@ -2749,16 +2749,16 @@
         <v>45</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>613</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>614</v>
-      </c>
       <c r="G1" s="20" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>50</v>
@@ -2766,10 +2766,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B2" t="s">
         <v>615</v>
-      </c>
-      <c r="B2" t="s">
-        <v>616</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2783,24 +2783,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B3" t="s">
         <v>617</v>
       </c>
-      <c r="B3" t="s">
-        <v>618</v>
-      </c>
       <c r="G3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -2838,10 +2838,10 @@
         <v>52</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>562</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>563</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>53</v>
@@ -2853,13 +2853,13 @@
         <v>54</v>
       </c>
       <c r="H1" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>564</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>565</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>566</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>55</v>
@@ -3696,7 +3696,7 @@
         <v>182</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>170</v>
@@ -3865,7 +3865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3959,7 +3959,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>514</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>515</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>517</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5199,7 +5199,7 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5219,7 +5219,7 @@
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -5268,34 +5268,34 @@
       <c r="A3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -5415,16 +5415,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5612,19 +5612,19 @@
         <v>446</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5641,13 +5641,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>538</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>194</v>
@@ -5661,10 +5661,10 @@
         <v>147</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5673,7 +5673,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>194</v>
@@ -5685,46 +5685,46 @@
         <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5736,7 +5736,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5758,7 +5758,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>179</v>
@@ -5869,161 +5869,161 @@
         <v>45</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G2" t="s">
+        <v>531</v>
+      </c>
+      <c r="H2" t="s">
         <v>532</v>
-      </c>
-      <c r="H2" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E3" t="s">
         <v>534</v>
       </c>
-      <c r="B3" t="s">
-        <v>555</v>
-      </c>
-      <c r="C3" t="s">
-        <v>557</v>
-      </c>
-      <c r="D3" t="s">
-        <v>523</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>535</v>
-      </c>
-      <c r="F3" t="s">
-        <v>536</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C5" t="s">
+        <v>546</v>
+      </c>
+      <c r="D5" t="s">
+        <v>544</v>
+      </c>
+      <c r="E5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F5" t="s">
+        <v>535</v>
+      </c>
+      <c r="G5" t="s">
         <v>547</v>
       </c>
-      <c r="D5" t="s">
-        <v>545</v>
-      </c>
-      <c r="E5" t="s">
-        <v>550</v>
-      </c>
-      <c r="F5" t="s">
-        <v>536</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>532</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>548</v>
-      </c>
-      <c r="H5" t="s">
-        <v>533</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C6" t="s">
         <v>194</v>
       </c>
       <c r="D6" t="s">
+        <v>544</v>
+      </c>
+      <c r="E6" t="s">
+        <v>528</v>
+      </c>
+      <c r="F6" t="s">
+        <v>535</v>
+      </c>
+      <c r="G6" t="s">
+        <v>550</v>
+      </c>
+      <c r="H6" t="s">
+        <v>532</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="E6" t="s">
-        <v>529</v>
-      </c>
-      <c r="F6" t="s">
-        <v>536</v>
-      </c>
-      <c r="G6" t="s">
-        <v>551</v>
-      </c>
-      <c r="H6" t="s">
-        <v>533</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -6134,55 +6134,55 @@
         <v>45</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>44</v>
       </c>
       <c r="G1" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>574</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>575</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>576</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>577</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>578</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>579</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>580</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>581</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>582</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>583</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>585</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -6190,58 +6190,58 @@
         <v>76</v>
       </c>
       <c r="B2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C2" t="s">
         <v>587</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>588</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>589</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="26" t="s">
         <v>590</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" t="s">
         <v>591</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>592</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>593</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>594</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>595</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>596</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>597</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>598</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>599</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>600</v>
-      </c>
-      <c r="P2" t="s">
-        <v>601</v>
       </c>
       <c r="Q2" t="s">
         <v>157</v>
       </c>
       <c r="R2" t="s">
+        <v>601</v>
+      </c>
+      <c r="S2" s="27" t="s">
         <v>602</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -6249,58 +6249,58 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C3" t="s">
         <v>604</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E3" t="s">
         <v>605</v>
       </c>
-      <c r="D3" t="s">
-        <v>589</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="G3" t="s">
+        <v>591</v>
+      </c>
+      <c r="H3" t="s">
         <v>606</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>591</v>
-      </c>
-      <c r="G3" t="s">
-        <v>592</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>593</v>
+      </c>
+      <c r="J3" t="s">
         <v>607</v>
       </c>
-      <c r="I3" t="s">
-        <v>594</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>608</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>609</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>597</v>
+      </c>
+      <c r="N3" t="s">
+        <v>598</v>
+      </c>
+      <c r="O3" t="s">
+        <v>599</v>
+      </c>
+      <c r="P3" t="s">
         <v>610</v>
-      </c>
-      <c r="M3" t="s">
-        <v>598</v>
-      </c>
-      <c r="N3" t="s">
-        <v>599</v>
-      </c>
-      <c r="O3" t="s">
-        <v>600</v>
-      </c>
-      <c r="P3" t="s">
-        <v>611</v>
       </c>
       <c r="Q3" t="s">
         <v>157</v>
       </c>
       <c r="R3" t="s">
+        <v>601</v>
+      </c>
+      <c r="S3" s="27" t="s">
         <v>602</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>603</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/simple_1_v2.xlsx
+++ b/tests/integration_test_files/simple_1_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0E4694-9F52-DF44-B7D8-E015C3B33074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D62389-6C34-894E-9C50-EA160190A602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58360" yWindow="4400" windowWidth="33600" windowHeight="19460" firstSheet="9" activeTab="16" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="58360" yWindow="4400" windowWidth="33600" windowHeight="19460" firstSheet="8" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="622">
   <si>
     <t>Screening</t>
   </si>
@@ -1841,18 +1841,12 @@
     <t>SPONSOR: A=B</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>FDA: A=B</t>
   </si>
   <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
@@ -1887,12 +1881,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Int Label 2</t>
-  </si>
-  <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
   </si>
   <si>
     <t>Admin 2</t>
@@ -1950,6 +1938,15 @@
     &lt;td style="vertical-align: top"&gt;&lt;usdm:ref klass="Endpoint" id="Endpoint_1" attribute="description"/&gt;&lt;/td&gt;
   &lt;/tr&gt;
 &lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
   </si>
 </sst>
 </file>
@@ -2112,10 +2109,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2740,7 +2737,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>446</v>
@@ -2752,13 +2749,13 @@
         <v>517</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>50</v>
@@ -2766,10 +2763,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2783,24 +2780,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B3" t="s">
+        <v>613</v>
+      </c>
+      <c r="G3" t="s">
         <v>616</v>
-      </c>
-      <c r="B3" t="s">
-        <v>617</v>
-      </c>
-      <c r="G3" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B4" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -3865,7 +3862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3967,7 +3964,7 @@
         <v>515</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -5268,34 +5265,34 @@
       <c r="A3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -5415,16 +5412,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6098,8 +6095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE0D94B-E29E-5042-A6E5-295C4913B48C}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6199,49 +6196,49 @@
         <v>588</v>
       </c>
       <c r="E2" t="s">
+        <v>619</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>589</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" t="s">
         <v>590</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>620</v>
+      </c>
+      <c r="I2" t="s">
         <v>591</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>592</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>593</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>594</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>595</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>596</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>597</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>598</v>
-      </c>
-      <c r="O2" t="s">
-        <v>599</v>
-      </c>
-      <c r="P2" t="s">
-        <v>600</v>
       </c>
       <c r="Q2" t="s">
         <v>157</v>
       </c>
       <c r="R2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -6249,58 +6246,58 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D3" t="s">
         <v>588</v>
       </c>
       <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="G3" t="s">
+        <v>590</v>
+      </c>
+      <c r="H3" t="s">
+        <v>621</v>
+      </c>
+      <c r="I3" t="s">
+        <v>591</v>
+      </c>
+      <c r="J3" t="s">
+        <v>603</v>
+      </c>
+      <c r="K3" t="s">
+        <v>604</v>
+      </c>
+      <c r="L3" t="s">
         <v>605</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>590</v>
-      </c>
-      <c r="G3" t="s">
-        <v>591</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>595</v>
+      </c>
+      <c r="N3" t="s">
+        <v>596</v>
+      </c>
+      <c r="O3" t="s">
+        <v>597</v>
+      </c>
+      <c r="P3" t="s">
         <v>606</v>
-      </c>
-      <c r="I3" t="s">
-        <v>593</v>
-      </c>
-      <c r="J3" t="s">
-        <v>607</v>
-      </c>
-      <c r="K3" t="s">
-        <v>608</v>
-      </c>
-      <c r="L3" t="s">
-        <v>609</v>
-      </c>
-      <c r="M3" t="s">
-        <v>597</v>
-      </c>
-      <c r="N3" t="s">
-        <v>598</v>
-      </c>
-      <c r="O3" t="s">
-        <v>599</v>
-      </c>
-      <c r="P3" t="s">
-        <v>610</v>
       </c>
       <c r="Q3" t="s">
         <v>157</v>
       </c>
       <c r="R3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="S3" s="27" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/simple_1_v2.xlsx
+++ b/tests/integration_test_files/simple_1_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D62389-6C34-894E-9C50-EA160190A602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C884226-3E2D-E147-8FAD-E37AF850B45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58360" yWindow="4400" windowWidth="33600" windowHeight="19460" firstSheet="8" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="58360" yWindow="4400" windowWidth="33600" windowHeight="19460" firstSheet="9" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -226,9 +226,6 @@
     <t>The primary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
     <t>Clinical status assessed using a 7-category ordinal scale at Day 28</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
   </si>
   <si>
     <t>The secondary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
-  </si>
-  <si>
-    <t>Study Secondary Objective</t>
   </si>
   <si>
     <t>Time to clinical improvement (TTCI) defined as a National Early Warning Score 2 (NEWS2) of &lt;=2 maintained for 24 hours</t>
@@ -1947,6 +1941,12 @@
   </si>
   <si>
     <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -2109,10 +2109,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2132,9 +2132,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2172,7 +2172,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2278,7 +2278,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2420,7 +2420,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2447,10 +2447,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2507,10 +2507,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2519,10 +2519,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2543,52 +2543,52 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>15</v>
@@ -2609,10 +2609,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2671,13 +2671,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>46</v>
@@ -2685,13 +2685,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>47</v>
@@ -2699,13 +2699,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>48</v>
@@ -2737,25 +2737,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>50</v>
@@ -2763,10 +2763,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2780,24 +2780,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B4" t="s">
         <v>612</v>
       </c>
-      <c r="B4" t="s">
-        <v>614</v>
-      </c>
       <c r="G4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -2809,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2829,34 +2829,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>53</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>563</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>564</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>565</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>55</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2872,42 +2872,42 @@
         <v>56</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>57</v>
+        <v>620</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>61</v>
+        <v>621</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2916,16 +2916,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2934,16 +2934,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2952,16 +2952,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2970,16 +2970,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2988,16 +2988,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3006,16 +3006,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3024,16 +3024,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3042,16 +3042,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3060,16 +3060,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3078,16 +3078,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3392,90 +3392,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="G1" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>103</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
         <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
         <v>132</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>133</v>
       </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" t="s">
         <v>134</v>
-      </c>
-      <c r="E5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3504,65 +3504,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" t="s">
         <v>152</v>
-      </c>
-      <c r="B2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>156</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3595,137 +3595,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>164</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3752,104 +3752,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3876,16 +3876,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3894,1212 +3894,1212 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B110" s="24"/>
       <c r="C110" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B111" s="24"/>
       <c r="C111" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B112" s="24"/>
       <c r="C112" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B113" s="24"/>
       <c r="C113" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B114" s="24"/>
       <c r="C114" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B116" s="24"/>
       <c r="C116" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B117" s="24"/>
       <c r="C117" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B129" s="24"/>
       <c r="C129" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B130" s="24"/>
       <c r="C130" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B131" s="24"/>
       <c r="C131" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -5123,18 +5123,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
         <v>127</v>
-      </c>
-      <c r="B1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5190,13 +5190,13 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5210,13 +5210,13 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -5241,10 +5241,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -5252,10 +5252,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -5265,41 +5265,41 @@
       <c r="A3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -5310,7 +5310,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -5321,7 +5321,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -5329,10 +5329,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -5340,7 +5340,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>28</v>
@@ -5369,16 +5369,16 @@
         <v>26</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5386,16 +5386,16 @@
         <v>27</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5412,16 +5412,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5446,19 +5446,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>233</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5466,16 +5466,16 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5486,13 +5486,13 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5520,13 +5520,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>220</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5534,10 +5534,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5545,10 +5545,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5556,10 +5556,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5567,10 +5567,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5600,36 +5600,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>45</v>
@@ -5638,30 +5638,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5670,10 +5670,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5682,46 +5682,46 @@
         <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5733,7 +5733,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5755,22 +5755,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5781,7 +5781,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5860,167 +5860,167 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F3" t="s">
         <v>533</v>
-      </c>
-      <c r="B3" t="s">
-        <v>554</v>
-      </c>
-      <c r="C3" t="s">
-        <v>556</v>
-      </c>
-      <c r="D3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E3" t="s">
-        <v>534</v>
-      </c>
-      <c r="F3" t="s">
-        <v>535</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E4" t="s">
+        <v>533</v>
+      </c>
+      <c r="F4" t="s">
+        <v>533</v>
+      </c>
+      <c r="G4" t="s">
         <v>541</v>
-      </c>
-      <c r="E4" t="s">
-        <v>535</v>
-      </c>
-      <c r="F4" t="s">
-        <v>535</v>
-      </c>
-      <c r="G4" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D5" t="s">
+        <v>542</v>
+      </c>
+      <c r="E5" t="s">
+        <v>547</v>
+      </c>
+      <c r="F5" t="s">
+        <v>533</v>
+      </c>
+      <c r="G5" t="s">
+        <v>545</v>
+      </c>
+      <c r="H5" t="s">
+        <v>530</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="D5" t="s">
-        <v>544</v>
-      </c>
-      <c r="E5" t="s">
-        <v>549</v>
-      </c>
-      <c r="F5" t="s">
-        <v>535</v>
-      </c>
-      <c r="G5" t="s">
-        <v>547</v>
-      </c>
-      <c r="H5" t="s">
-        <v>532</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -6048,16 +6048,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>242</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6065,7 +6065,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6073,13 +6073,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6095,7 +6095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE0D94B-E29E-5042-A6E5-295C4913B48C}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
@@ -6125,179 +6125,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>44</v>
       </c>
       <c r="G1" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>573</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>574</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>575</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>576</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>577</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>578</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>579</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>580</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>581</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>582</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>583</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>584</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D2" t="s">
         <v>586</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>617</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>588</v>
       </c>
-      <c r="E2" t="s">
-        <v>619</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="H2" t="s">
+        <v>618</v>
+      </c>
+      <c r="I2" t="s">
         <v>589</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>590</v>
       </c>
-      <c r="H2" t="s">
-        <v>620</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>591</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>592</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>593</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>594</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>595</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>596</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" t="s">
         <v>597</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="27" t="s">
         <v>598</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>157</v>
-      </c>
-      <c r="R2" t="s">
-        <v>599</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="G3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H3" t="s">
+        <v>619</v>
+      </c>
+      <c r="I3" t="s">
         <v>589</v>
       </c>
-      <c r="G3" t="s">
-        <v>590</v>
-      </c>
-      <c r="H3" t="s">
-        <v>621</v>
-      </c>
-      <c r="I3" t="s">
-        <v>591</v>
-      </c>
       <c r="J3" t="s">
+        <v>601</v>
+      </c>
+      <c r="K3" t="s">
+        <v>602</v>
+      </c>
+      <c r="L3" t="s">
         <v>603</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>593</v>
+      </c>
+      <c r="N3" t="s">
+        <v>594</v>
+      </c>
+      <c r="O3" t="s">
+        <v>595</v>
+      </c>
+      <c r="P3" t="s">
         <v>604</v>
       </c>
-      <c r="L3" t="s">
-        <v>605</v>
-      </c>
-      <c r="M3" t="s">
-        <v>595</v>
-      </c>
-      <c r="N3" t="s">
-        <v>596</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>155</v>
+      </c>
+      <c r="R3" t="s">
         <v>597</v>
       </c>
-      <c r="P3" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>157</v>
-      </c>
-      <c r="R3" t="s">
-        <v>599</v>
-      </c>
       <c r="S3" s="27" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/simple_1_v2.xlsx
+++ b/tests/integration_test_files/simple_1_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C884226-3E2D-E147-8FAD-E37AF850B45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACA10D8-D21C-8848-897E-AAABEAFF1F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58360" yWindow="4400" windowWidth="33600" windowHeight="19460" firstSheet="9" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="58360" yWindow="4400" windowWidth="33600" windowHeight="19460" firstSheet="3" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="622">
   <si>
     <t>Screening</t>
   </si>
@@ -2109,10 +2109,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2809,7 +2809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -5265,34 +5265,34 @@
       <c r="A3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
@@ -5412,16 +5412,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5582,11 +5582,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5785,9 +5785,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -5811,9 +5809,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>

--- a/tests/integration_test_files/simple_1_v2.xlsx
+++ b/tests/integration_test_files/simple_1_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACA10D8-D21C-8848-897E-AAABEAFF1F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340C1E84-C048-664B-A4A5-1FF3BF4741B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58360" yWindow="4400" windowWidth="33600" windowHeight="19460" firstSheet="3" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="48440" yWindow="3740" windowWidth="33600" windowHeight="19460" firstSheet="3" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="625">
   <si>
     <t>Screening</t>
   </si>
@@ -1948,12 +1948,21 @@
   <si>
     <t>Secondary Objective</t>
   </si>
+  <si>
+    <t>populationSubset</t>
+  </si>
+  <si>
+    <t>intercurrentEventText</t>
+  </si>
+  <si>
+    <t>ICE Text</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1979,14 +1988,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2036,7 +2037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2063,10 +2064,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2103,16 +2100,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2446,7 +2443,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>444</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -2458,7 +2455,7 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
@@ -2470,10 +2467,10 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E3"/>
@@ -2482,7 +2479,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -2494,7 +2491,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2506,7 +2503,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>104</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2518,7 +2515,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -2530,10 +2527,10 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>120</v>
       </c>
       <c r="E8"/>
@@ -2542,7 +2539,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>108</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2551,12 +2548,12 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>109</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -2570,7 +2567,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>110</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2584,7 +2581,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>111</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -2596,10 +2593,10 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E13"/>
@@ -2608,7 +2605,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>113</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2670,16 +2667,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2736,28 +2733,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>605</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>613</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2828,37 +2825,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>559</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>561</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>562</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3374,49 +3371,56 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="61.83203125" customWidth="1"/>
+    <col min="3" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="61.83203125" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="20" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" s="20" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -3426,33 +3430,47 @@
       <c r="C2" t="s">
         <v>98</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="E2" t="s">
         <v>99</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>103</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>81</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
+      <c r="J2" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D3" s="10"/>
+      <c r="I3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H4" t="s">
+      <c r="J3" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D4" s="10"/>
+      <c r="I4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4" s="10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -3462,20 +3480,26 @@
       <c r="C5" t="s">
         <v>98</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="E5" t="s">
         <v>132</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>133</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>82</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>134</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -3506,22 +3530,22 @@
       <c r="A1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3594,28 +3618,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3751,19 +3775,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3875,16 +3899,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3892,7 +3916,7 @@
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="9" t="s">
         <v>248</v>
       </c>
@@ -3957,7 +3981,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>512</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -3987,7 +4011,7 @@
       <c r="A13" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="9" t="s">
         <v>259</v>
       </c>
@@ -3996,7 +4020,7 @@
       <c r="A14" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="9" t="s">
         <v>260</v>
       </c>
@@ -4005,7 +4029,7 @@
       <c r="A15" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="9" t="s">
         <v>261</v>
       </c>
@@ -4014,7 +4038,7 @@
       <c r="A16" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="9" t="s">
         <v>262</v>
       </c>
@@ -4023,7 +4047,7 @@
       <c r="A17" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="9" t="s">
         <v>263</v>
       </c>
@@ -4032,7 +4056,7 @@
       <c r="A18" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="9" t="s">
         <v>264</v>
       </c>
@@ -4041,7 +4065,7 @@
       <c r="A19" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="9" t="s">
         <v>265</v>
       </c>
@@ -4050,7 +4074,7 @@
       <c r="A20" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="9" t="s">
         <v>252</v>
       </c>
@@ -4059,7 +4083,7 @@
       <c r="A21" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="9" t="s">
         <v>266</v>
       </c>
@@ -4068,7 +4092,7 @@
       <c r="A22" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="9" t="s">
         <v>267</v>
       </c>
@@ -4077,7 +4101,7 @@
       <c r="A23" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="9" t="s">
         <v>268</v>
       </c>
@@ -4089,7 +4113,7 @@
       <c r="A24" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="9" t="s">
         <v>269</v>
       </c>
@@ -4101,7 +4125,7 @@
       <c r="A25" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="9" t="s">
         <v>270</v>
       </c>
@@ -4110,7 +4134,7 @@
       <c r="A26" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="9" t="s">
         <v>271</v>
       </c>
@@ -4119,7 +4143,7 @@
       <c r="A27" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="9" t="s">
         <v>272</v>
       </c>
@@ -4128,7 +4152,7 @@
       <c r="A28" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="9" t="s">
         <v>273</v>
       </c>
@@ -4137,7 +4161,7 @@
       <c r="A29" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="9" t="s">
         <v>274</v>
       </c>
@@ -4146,7 +4170,7 @@
       <c r="A30" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="9" t="s">
         <v>275</v>
       </c>
@@ -4155,7 +4179,7 @@
       <c r="A31" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="9" t="s">
         <v>276</v>
       </c>
@@ -4164,7 +4188,7 @@
       <c r="A32" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="B32" s="24"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="9" t="s">
         <v>277</v>
       </c>
@@ -4173,7 +4197,7 @@
       <c r="A33" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B33" s="24"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="9" t="s">
         <v>278</v>
       </c>
@@ -4182,7 +4206,7 @@
       <c r="A34" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="9" t="s">
         <v>279</v>
       </c>
@@ -4191,7 +4215,7 @@
       <c r="A35" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="9" t="s">
         <v>280</v>
       </c>
@@ -4200,7 +4224,7 @@
       <c r="A36" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="9" t="s">
         <v>281</v>
       </c>
@@ -4209,7 +4233,7 @@
       <c r="A37" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="B37" s="24"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="9" t="s">
         <v>282</v>
       </c>
@@ -4218,7 +4242,7 @@
       <c r="A38" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B38" s="24"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="9" t="s">
         <v>283</v>
       </c>
@@ -4227,7 +4251,7 @@
       <c r="A39" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="9" t="s">
         <v>284</v>
       </c>
@@ -4236,7 +4260,7 @@
       <c r="A40" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B40" s="24"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="9" t="s">
         <v>285</v>
       </c>
@@ -4245,7 +4269,7 @@
       <c r="A41" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="B41" s="24"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="9" t="s">
         <v>286</v>
       </c>
@@ -4254,7 +4278,7 @@
       <c r="A42" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="9" t="s">
         <v>287</v>
       </c>
@@ -4263,7 +4287,7 @@
       <c r="A43" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B43" s="24"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="9" t="s">
         <v>288</v>
       </c>
@@ -4272,7 +4296,7 @@
       <c r="A44" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="B44" s="24"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="9" t="s">
         <v>289</v>
       </c>
@@ -4284,7 +4308,7 @@
       <c r="A45" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="9" t="s">
         <v>290</v>
       </c>
@@ -4293,7 +4317,7 @@
       <c r="A46" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="9" t="s">
         <v>291</v>
       </c>
@@ -4302,7 +4326,7 @@
       <c r="A47" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="9" t="s">
         <v>292</v>
       </c>
@@ -4311,7 +4335,7 @@
       <c r="A48" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="9" t="s">
         <v>293</v>
       </c>
@@ -4320,7 +4344,7 @@
       <c r="A49" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B49" s="24"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="9" t="s">
         <v>294</v>
       </c>
@@ -4329,7 +4353,7 @@
       <c r="A50" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="B50" s="24"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="9" t="s">
         <v>295</v>
       </c>
@@ -4338,7 +4362,7 @@
       <c r="A51" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="B51" s="24"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="9" t="s">
         <v>377</v>
       </c>
@@ -4347,7 +4371,7 @@
       <c r="A52" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B52" s="24"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="9" t="s">
         <v>296</v>
       </c>
@@ -4356,7 +4380,7 @@
       <c r="A53" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B53" s="24"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="9" t="s">
         <v>297</v>
       </c>
@@ -4365,7 +4389,7 @@
       <c r="A54" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="B54" s="24"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="9" t="s">
         <v>298</v>
       </c>
@@ -4374,7 +4398,7 @@
       <c r="A55" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B55" s="24"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="9" t="s">
         <v>299</v>
       </c>
@@ -4383,7 +4407,7 @@
       <c r="A56" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="9" t="s">
         <v>300</v>
       </c>
@@ -4392,7 +4416,7 @@
       <c r="A57" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="9" t="s">
         <v>301</v>
       </c>
@@ -4401,7 +4425,7 @@
       <c r="A58" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="9" t="s">
         <v>302</v>
       </c>
@@ -4410,7 +4434,7 @@
       <c r="A59" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="B59" s="24"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="9" t="s">
         <v>303</v>
       </c>
@@ -4419,7 +4443,7 @@
       <c r="A60" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B60" s="24"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="9" t="s">
         <v>304</v>
       </c>
@@ -4428,7 +4452,7 @@
       <c r="A61" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B61" s="24"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="9" t="s">
         <v>305</v>
       </c>
@@ -4437,7 +4461,7 @@
       <c r="A62" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B62" s="24"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="9" t="s">
         <v>306</v>
       </c>
@@ -4446,7 +4470,7 @@
       <c r="A63" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="B63" s="24"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="9" t="s">
         <v>307</v>
       </c>
@@ -4455,7 +4479,7 @@
       <c r="A64" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="B64" s="24"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="9" t="s">
         <v>308</v>
       </c>
@@ -4464,7 +4488,7 @@
       <c r="A65" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B65" s="24"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="9" t="s">
         <v>309</v>
       </c>
@@ -4473,7 +4497,7 @@
       <c r="A66" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="9" t="s">
         <v>310</v>
       </c>
@@ -4482,7 +4506,7 @@
       <c r="A67" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="B67" s="24"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="9" t="s">
         <v>311</v>
       </c>
@@ -4491,7 +4515,7 @@
       <c r="A68" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="B68" s="24"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="9" t="s">
         <v>312</v>
       </c>
@@ -4500,7 +4524,7 @@
       <c r="A69" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="B69" s="24"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="9" t="s">
         <v>313</v>
       </c>
@@ -4509,7 +4533,7 @@
       <c r="A70" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="B70" s="24"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="9" t="s">
         <v>314</v>
       </c>
@@ -4518,7 +4542,7 @@
       <c r="A71" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="B71" s="24"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="9" t="s">
         <v>315</v>
       </c>
@@ -4527,7 +4551,7 @@
       <c r="A72" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="B72" s="24"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="9" t="s">
         <v>316</v>
       </c>
@@ -4536,7 +4560,7 @@
       <c r="A73" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B73" s="24"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="9" t="s">
         <v>317</v>
       </c>
@@ -4545,7 +4569,7 @@
       <c r="A74" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="B74" s="24"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="9" t="s">
         <v>318</v>
       </c>
@@ -4554,7 +4578,7 @@
       <c r="A75" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="B75" s="24"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="9" t="s">
         <v>319</v>
       </c>
@@ -4563,7 +4587,7 @@
       <c r="A76" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="B76" s="24"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="9" t="s">
         <v>320</v>
       </c>
@@ -4572,7 +4596,7 @@
       <c r="A77" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B77" s="24"/>
+      <c r="B77" s="22"/>
       <c r="C77" s="9" t="s">
         <v>321</v>
       </c>
@@ -4581,7 +4605,7 @@
       <c r="A78" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="B78" s="24"/>
+      <c r="B78" s="22"/>
       <c r="C78" s="9" t="s">
         <v>322</v>
       </c>
@@ -4590,7 +4614,7 @@
       <c r="A79" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="B79" s="24"/>
+      <c r="B79" s="22"/>
       <c r="C79" s="9" t="s">
         <v>323</v>
       </c>
@@ -4599,7 +4623,7 @@
       <c r="A80" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="B80" s="24"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="9" t="s">
         <v>324</v>
       </c>
@@ -4608,7 +4632,7 @@
       <c r="A81" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="B81" s="24"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="9" t="s">
         <v>325</v>
       </c>
@@ -4617,7 +4641,7 @@
       <c r="A82" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="B82" s="24"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="9" t="s">
         <v>326</v>
       </c>
@@ -4626,7 +4650,7 @@
       <c r="A83" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B83" s="24"/>
+      <c r="B83" s="22"/>
       <c r="C83" s="9" t="s">
         <v>327</v>
       </c>
@@ -4635,7 +4659,7 @@
       <c r="A84" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="B84" s="24"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="9" t="s">
         <v>328</v>
       </c>
@@ -4644,7 +4668,7 @@
       <c r="A85" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="B85" s="24"/>
+      <c r="B85" s="22"/>
       <c r="C85" s="9" t="s">
         <v>329</v>
       </c>
@@ -4653,7 +4677,7 @@
       <c r="A86" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="B86" s="24"/>
+      <c r="B86" s="22"/>
       <c r="C86" s="9" t="s">
         <v>330</v>
       </c>
@@ -4662,7 +4686,7 @@
       <c r="A87" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="B87" s="24"/>
+      <c r="B87" s="22"/>
       <c r="C87" s="9" t="s">
         <v>331</v>
       </c>
@@ -4671,7 +4695,7 @@
       <c r="A88" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="B88" s="24"/>
+      <c r="B88" s="22"/>
       <c r="C88" s="9" t="s">
         <v>332</v>
       </c>
@@ -4680,7 +4704,7 @@
       <c r="A89" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="B89" s="24"/>
+      <c r="B89" s="22"/>
       <c r="C89" s="9" t="s">
         <v>333</v>
       </c>
@@ -4689,7 +4713,7 @@
       <c r="A90" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="B90" s="24"/>
+      <c r="B90" s="22"/>
       <c r="C90" s="9" t="s">
         <v>334</v>
       </c>
@@ -4698,7 +4722,7 @@
       <c r="A91" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B91" s="24"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="9" t="s">
         <v>335</v>
       </c>
@@ -4707,7 +4731,7 @@
       <c r="A92" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="B92" s="24"/>
+      <c r="B92" s="22"/>
       <c r="C92" s="9" t="s">
         <v>336</v>
       </c>
@@ -4716,7 +4740,7 @@
       <c r="A93" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="B93" s="24"/>
+      <c r="B93" s="22"/>
       <c r="C93" s="9" t="s">
         <v>337</v>
       </c>
@@ -4725,7 +4749,7 @@
       <c r="A94" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B94" s="24"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="9" t="s">
         <v>338</v>
       </c>
@@ -4734,7 +4758,7 @@
       <c r="A95" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="B95" s="24"/>
+      <c r="B95" s="22"/>
       <c r="C95" s="9" t="s">
         <v>339</v>
       </c>
@@ -4743,7 +4767,7 @@
       <c r="A96" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="B96" s="24"/>
+      <c r="B96" s="22"/>
       <c r="C96" s="9" t="s">
         <v>340</v>
       </c>
@@ -4752,7 +4776,7 @@
       <c r="A97" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="B97" s="24"/>
+      <c r="B97" s="22"/>
       <c r="C97" s="9" t="s">
         <v>341</v>
       </c>
@@ -4761,7 +4785,7 @@
       <c r="A98" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="B98" s="24"/>
+      <c r="B98" s="22"/>
       <c r="C98" s="9" t="s">
         <v>342</v>
       </c>
@@ -4770,7 +4794,7 @@
       <c r="A99" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="B99" s="24"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="9" t="s">
         <v>343</v>
       </c>
@@ -4779,7 +4803,7 @@
       <c r="A100" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="B100" s="24"/>
+      <c r="B100" s="22"/>
       <c r="C100" s="9" t="s">
         <v>344</v>
       </c>
@@ -4788,7 +4812,7 @@
       <c r="A101" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="B101" s="24"/>
+      <c r="B101" s="22"/>
       <c r="C101" s="9" t="s">
         <v>345</v>
       </c>
@@ -4797,7 +4821,7 @@
       <c r="A102" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="B102" s="24"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="9" t="s">
         <v>346</v>
       </c>
@@ -4806,7 +4830,7 @@
       <c r="A103" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="B103" s="24"/>
+      <c r="B103" s="22"/>
       <c r="C103" s="9" t="s">
         <v>347</v>
       </c>
@@ -4815,7 +4839,7 @@
       <c r="A104" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="B104" s="24"/>
+      <c r="B104" s="22"/>
       <c r="C104" s="9" t="s">
         <v>348</v>
       </c>
@@ -4824,7 +4848,7 @@
       <c r="A105" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="B105" s="24"/>
+      <c r="B105" s="22"/>
       <c r="C105" s="9" t="s">
         <v>349</v>
       </c>
@@ -4833,7 +4857,7 @@
       <c r="A106" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="B106" s="24"/>
+      <c r="B106" s="22"/>
       <c r="C106" s="9" t="s">
         <v>350</v>
       </c>
@@ -4842,7 +4866,7 @@
       <c r="A107" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="B107" s="24"/>
+      <c r="B107" s="22"/>
       <c r="C107" s="9" t="s">
         <v>351</v>
       </c>
@@ -4851,7 +4875,7 @@
       <c r="A108" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="B108" s="24"/>
+      <c r="B108" s="22"/>
       <c r="C108" s="9" t="s">
         <v>352</v>
       </c>
@@ -4860,7 +4884,7 @@
       <c r="A109" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="B109" s="24"/>
+      <c r="B109" s="22"/>
       <c r="C109" s="9" t="s">
         <v>353</v>
       </c>
@@ -4869,7 +4893,7 @@
       <c r="A110" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="B110" s="24"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="9" t="s">
         <v>354</v>
       </c>
@@ -4878,7 +4902,7 @@
       <c r="A111" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="B111" s="24"/>
+      <c r="B111" s="22"/>
       <c r="C111" s="9" t="s">
         <v>355</v>
       </c>
@@ -4887,7 +4911,7 @@
       <c r="A112" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="B112" s="24"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="9" t="s">
         <v>356</v>
       </c>
@@ -4896,7 +4920,7 @@
       <c r="A113" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="B113" s="24"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="9" t="s">
         <v>357</v>
       </c>
@@ -4905,7 +4929,7 @@
       <c r="A114" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="B114" s="24"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="9" t="s">
         <v>358</v>
       </c>
@@ -4914,7 +4938,7 @@
       <c r="A115" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="B115" s="24"/>
+      <c r="B115" s="22"/>
       <c r="C115" s="9" t="s">
         <v>359</v>
       </c>
@@ -4923,7 +4947,7 @@
       <c r="A116" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="B116" s="24"/>
+      <c r="B116" s="22"/>
       <c r="C116" s="9" t="s">
         <v>360</v>
       </c>
@@ -4932,7 +4956,7 @@
       <c r="A117" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="B117" s="24"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="9" t="s">
         <v>361</v>
       </c>
@@ -4941,7 +4965,7 @@
       <c r="A118" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B118" s="24"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="9" t="s">
         <v>362</v>
       </c>
@@ -4950,7 +4974,7 @@
       <c r="A119" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="B119" s="24"/>
+      <c r="B119" s="22"/>
       <c r="C119" s="9" t="s">
         <v>363</v>
       </c>
@@ -4959,7 +4983,7 @@
       <c r="A120" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B120" s="24"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="9" t="s">
         <v>364</v>
       </c>
@@ -4968,7 +4992,7 @@
       <c r="A121" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="B121" s="24"/>
+      <c r="B121" s="22"/>
       <c r="C121" s="9" t="s">
         <v>365</v>
       </c>
@@ -4977,7 +5001,7 @@
       <c r="A122" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="B122" s="24"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="9" t="s">
         <v>366</v>
       </c>
@@ -4986,7 +5010,7 @@
       <c r="A123" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B123" s="24"/>
+      <c r="B123" s="22"/>
       <c r="C123" s="9" t="s">
         <v>367</v>
       </c>
@@ -4995,7 +5019,7 @@
       <c r="A124" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="B124" s="24"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="9" t="s">
         <v>368</v>
       </c>
@@ -5004,7 +5028,7 @@
       <c r="A125" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="B125" s="24"/>
+      <c r="B125" s="22"/>
       <c r="C125" s="9" t="s">
         <v>369</v>
       </c>
@@ -5013,7 +5037,7 @@
       <c r="A126" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="B126" s="24"/>
+      <c r="B126" s="22"/>
       <c r="C126" s="9" t="s">
         <v>370</v>
       </c>
@@ -5022,7 +5046,7 @@
       <c r="A127" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="B127" s="24"/>
+      <c r="B127" s="22"/>
       <c r="C127" s="9" t="s">
         <v>371</v>
       </c>
@@ -5031,7 +5055,7 @@
       <c r="A128" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="B128" s="24"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="9" t="s">
         <v>372</v>
       </c>
@@ -5040,7 +5064,7 @@
       <c r="A129" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B129" s="24"/>
+      <c r="B129" s="22"/>
       <c r="C129" s="9" t="s">
         <v>373</v>
       </c>
@@ -5049,7 +5073,7 @@
       <c r="A130" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="B130" s="24"/>
+      <c r="B130" s="22"/>
       <c r="C130" s="9" t="s">
         <v>374</v>
       </c>
@@ -5058,7 +5082,7 @@
       <c r="A131" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="B131" s="24"/>
+      <c r="B131" s="22"/>
       <c r="C131" s="9" t="s">
         <v>375</v>
       </c>
@@ -5067,7 +5091,7 @@
       <c r="A132" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B132" s="24"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="9" t="s">
         <v>376</v>
       </c>
@@ -5160,22 +5184,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5240,115 +5264,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>183</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -5412,16 +5436,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5445,19 +5469,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5519,13 +5543,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5582,7 +5606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -5599,13 +5623,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>444</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -5625,13 +5649,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5651,13 +5675,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>144</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>515</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5677,8 +5701,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -5698,8 +5722,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>523</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5719,8 +5743,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>524</v>
       </c>
       <c r="D6" s="2"/>
@@ -5732,7 +5756,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>521</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -5754,7 +5778,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>522</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -5774,13 +5798,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>182</v>
       </c>
     </row>
@@ -6043,16 +6067,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6120,61 +6144,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="20" t="s">
         <v>578</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="20" t="s">
         <v>583</v>
       </c>
     </row>
@@ -6194,7 +6218,7 @@
       <c r="E2" t="s">
         <v>617</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="24" t="s">
         <v>587</v>
       </c>
       <c r="G2" t="s">
@@ -6233,7 +6257,7 @@
       <c r="R2" t="s">
         <v>597</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="25" t="s">
         <v>598</v>
       </c>
     </row>
@@ -6253,7 +6277,7 @@
       <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="24" t="s">
         <v>587</v>
       </c>
       <c r="G3" t="s">
@@ -6292,7 +6316,7 @@
       <c r="R3" t="s">
         <v>597</v>
       </c>
-      <c r="S3" s="27" t="s">
+      <c r="S3" s="25" t="s">
         <v>598</v>
       </c>
     </row>

--- a/tests/integration_test_files/simple_1_v2.xlsx
+++ b/tests/integration_test_files/simple_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32712C5A-69C5-D64C-9C24-D3F667C71974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5973C8D6-4800-254D-BDB8-99288707CD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51380" yWindow="500" windowWidth="50140" windowHeight="27240" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51560" yWindow="500" windowWidth="50140" windowHeight="27240" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="628">
   <si>
     <t>Screening</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>interventionModel</t>
-  </si>
-  <si>
-    <t>trialTypes</t>
   </si>
   <si>
     <t>DUNS</t>
@@ -1963,6 +1960,12 @@
   </si>
   <si>
     <t>ACME</t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t>trialSubTypes</t>
   </si>
 </sst>
 </file>
@@ -2044,7 +2047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2111,12 +2114,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2435,7 +2432,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2451,10 +2448,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2490,7 +2487,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -2502,7 +2499,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -2511,10 +2508,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2523,10 +2520,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2535,10 +2532,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2547,52 +2544,52 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2601,7 +2598,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>15</v>
@@ -2613,10 +2610,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2692,179 +2689,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>46</v>
-      </c>
       <c r="E1" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="K1" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>578</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>582</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C2" t="s">
         <v>584</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>585</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>587</v>
+      </c>
+      <c r="H2" t="s">
         <v>617</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>587</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>588</v>
       </c>
-      <c r="H2" t="s">
-        <v>618</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>589</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>590</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>591</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>592</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>593</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>594</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>595</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" t="s">
         <v>596</v>
       </c>
-      <c r="Q2" t="s">
-        <v>155</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="25" t="s">
         <v>597</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C3" t="s">
         <v>599</v>
       </c>
-      <c r="C3" t="s">
-        <v>600</v>
-      </c>
       <c r="D3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="G3" t="s">
         <v>587</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>618</v>
+      </c>
+      <c r="I3" t="s">
         <v>588</v>
       </c>
-      <c r="H3" t="s">
-        <v>619</v>
-      </c>
-      <c r="I3" t="s">
-        <v>589</v>
-      </c>
       <c r="J3" t="s">
+        <v>600</v>
+      </c>
+      <c r="K3" t="s">
         <v>601</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>602</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>592</v>
+      </c>
+      <c r="N3" t="s">
+        <v>593</v>
+      </c>
+      <c r="O3" t="s">
+        <v>594</v>
+      </c>
+      <c r="P3" t="s">
         <v>603</v>
       </c>
-      <c r="M3" t="s">
-        <v>593</v>
-      </c>
-      <c r="N3" t="s">
-        <v>594</v>
-      </c>
-      <c r="O3" t="s">
-        <v>595</v>
-      </c>
-      <c r="P3" t="s">
-        <v>604</v>
-      </c>
       <c r="Q3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R3" t="s">
+        <v>596</v>
+      </c>
+      <c r="S3" s="25" t="s">
         <v>597</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -2889,44 +2886,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C2" t="s">
         <v>566</v>
       </c>
-      <c r="C2" t="s">
-        <v>567</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C3" t="s">
         <v>568</v>
       </c>
-      <c r="C3" t="s">
-        <v>569</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2955,36 +2952,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>605</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>515</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>607</v>
-      </c>
       <c r="G1" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B2" t="s">
         <v>608</v>
-      </c>
-      <c r="B2" t="s">
-        <v>609</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2993,29 +2990,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B3" t="s">
         <v>610</v>
       </c>
-      <c r="B3" t="s">
-        <v>611</v>
-      </c>
       <c r="G3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -3047,85 +3044,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>559</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="G1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="I1" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>562</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>563</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3134,16 +3131,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3152,16 +3149,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3170,16 +3167,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3188,16 +3185,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3206,16 +3203,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3224,16 +3221,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3242,16 +3239,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3260,16 +3257,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3278,16 +3275,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3296,16 +3293,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3611,116 +3608,116 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>621</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>622</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="E2" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
         <v>99</v>
       </c>
-      <c r="F2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" t="s">
-        <v>100</v>
-      </c>
       <c r="J2" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D3" s="10"/>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D4" s="10"/>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
         <v>130</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="E5" t="s">
         <v>131</v>
       </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>132</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
         <v>133</v>
       </c>
-      <c r="G5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" t="s">
-        <v>134</v>
-      </c>
       <c r="J5" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -3749,65 +3746,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
         <v>150</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" t="s">
         <v>151</v>
-      </c>
-      <c r="C2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" t="s">
         <v>153</v>
       </c>
-      <c r="B3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>155</v>
-      </c>
-      <c r="G3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3840,137 +3837,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>163</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3997,104 +3994,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>186</v>
-      </c>
       <c r="D1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>163</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4121,16 +4118,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>246</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -4139,1212 +4136,1212 @@
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>513</v>
-      </c>
       <c r="D10" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B39" s="22"/>
       <c r="C39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B48" s="22"/>
       <c r="C48" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B52" s="22"/>
       <c r="C52" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B53" s="22"/>
       <c r="C53" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B58" s="22"/>
       <c r="C58" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B61" s="22"/>
       <c r="C61" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B63" s="22"/>
       <c r="C63" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B64" s="22"/>
       <c r="C64" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B65" s="22"/>
       <c r="C65" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B66" s="22"/>
       <c r="C66" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B67" s="22"/>
       <c r="C67" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B68" s="22"/>
       <c r="C68" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B69" s="22"/>
       <c r="C69" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B70" s="22"/>
       <c r="C70" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B71" s="22"/>
       <c r="C71" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B72" s="22"/>
       <c r="C72" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B73" s="22"/>
       <c r="C73" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B74" s="22"/>
       <c r="C74" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B75" s="22"/>
       <c r="C75" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B76" s="22"/>
       <c r="C76" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B77" s="22"/>
       <c r="C77" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B78" s="22"/>
       <c r="C78" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B79" s="22"/>
       <c r="C79" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B80" s="22"/>
       <c r="C80" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B81" s="22"/>
       <c r="C81" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B82" s="22"/>
       <c r="C82" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B83" s="22"/>
       <c r="C83" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B84" s="22"/>
       <c r="C84" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B85" s="22"/>
       <c r="C85" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B86" s="22"/>
       <c r="C86" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B87" s="22"/>
       <c r="C87" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B88" s="22"/>
       <c r="C88" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B89" s="22"/>
       <c r="C89" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B90" s="22"/>
       <c r="C90" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B91" s="22"/>
       <c r="C91" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B92" s="22"/>
       <c r="C92" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B93" s="22"/>
       <c r="C93" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B94" s="22"/>
       <c r="C94" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B95" s="22"/>
       <c r="C95" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B96" s="22"/>
       <c r="C96" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B97" s="22"/>
       <c r="C97" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B98" s="22"/>
       <c r="C98" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B99" s="22"/>
       <c r="C99" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B100" s="22"/>
       <c r="C100" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B101" s="22"/>
       <c r="C101" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B102" s="22"/>
       <c r="C102" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B103" s="22"/>
       <c r="C103" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B104" s="22"/>
       <c r="C104" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B105" s="22"/>
       <c r="C105" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B106" s="22"/>
       <c r="C106" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B107" s="22"/>
       <c r="C107" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B108" s="22"/>
       <c r="C108" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B109" s="22"/>
       <c r="C109" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B110" s="22"/>
       <c r="C110" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B111" s="22"/>
       <c r="C111" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B112" s="22"/>
       <c r="C112" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B113" s="22"/>
       <c r="C113" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B114" s="22"/>
       <c r="C114" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B115" s="22"/>
       <c r="C115" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B116" s="22"/>
       <c r="C116" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B117" s="22"/>
       <c r="C117" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B118" s="22"/>
       <c r="C118" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B119" s="22"/>
       <c r="C119" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B120" s="22"/>
       <c r="C120" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B121" s="22"/>
       <c r="C121" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B122" s="22"/>
       <c r="C122" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B123" s="22"/>
       <c r="C123" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B124" s="22"/>
       <c r="C124" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B125" s="22"/>
       <c r="C125" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B126" s="22"/>
       <c r="C126" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B127" s="22"/>
       <c r="C127" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B128" s="22"/>
       <c r="C128" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B129" s="22"/>
       <c r="C129" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B130" s="22"/>
       <c r="C130" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B131" s="22"/>
       <c r="C131" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B132" s="22"/>
       <c r="C132" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -5368,18 +5365,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5391,7 +5388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -5414,13 +5411,13 @@
         <v>18</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5437,30 +5434,30 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
-        <v>626</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -5487,7 +5484,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5500,10 +5497,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -5513,10 +5510,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5528,10 +5525,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -5539,10 +5536,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -5552,41 +5549,41 @@
       <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -5594,10 +5591,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>35</v>
+        <v>627</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -5608,7 +5605,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -5616,10 +5613,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -5627,88 +5624,122 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="D16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5733,19 +5764,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>232</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5753,16 +5784,16 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5773,13 +5804,13 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5807,13 +5838,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>219</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5821,10 +5852,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5832,10 +5863,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5843,10 +5874,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5854,10 +5885,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5887,68 +5918,68 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>143</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>535</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5957,58 +5988,58 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>533</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6020,7 +6051,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -6042,22 +6073,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6068,7 +6099,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6077,7 +6108,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -6143,167 +6174,167 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>517</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G2" t="s">
+        <v>528</v>
+      </c>
+      <c r="H2" t="s">
         <v>529</v>
-      </c>
-      <c r="H2" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E3" t="s">
         <v>531</v>
       </c>
-      <c r="B3" t="s">
-        <v>552</v>
-      </c>
-      <c r="C3" t="s">
-        <v>554</v>
-      </c>
-      <c r="D3" t="s">
-        <v>520</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>532</v>
-      </c>
-      <c r="F3" t="s">
-        <v>533</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C5" t="s">
+        <v>543</v>
+      </c>
+      <c r="D5" t="s">
+        <v>541</v>
+      </c>
+      <c r="E5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F5" t="s">
+        <v>532</v>
+      </c>
+      <c r="G5" t="s">
         <v>544</v>
       </c>
-      <c r="D5" t="s">
-        <v>542</v>
-      </c>
-      <c r="E5" t="s">
-        <v>547</v>
-      </c>
-      <c r="F5" t="s">
-        <v>533</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>529</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="H5" t="s">
-        <v>530</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
+        <v>541</v>
+      </c>
+      <c r="E6" t="s">
+        <v>525</v>
+      </c>
+      <c r="F6" t="s">
+        <v>532</v>
+      </c>
+      <c r="G6" t="s">
+        <v>547</v>
+      </c>
+      <c r="H6" t="s">
+        <v>529</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>542</v>
-      </c>
-      <c r="E6" t="s">
-        <v>526</v>
-      </c>
-      <c r="F6" t="s">
-        <v>533</v>
-      </c>
-      <c r="G6" t="s">
-        <v>548</v>
-      </c>
-      <c r="H6" t="s">
-        <v>530</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -6331,16 +6362,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>241</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6348,7 +6379,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6356,13 +6387,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" t="s">
         <v>244</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/simple_1_v2.xlsx
+++ b/tests/integration_test_files/simple_1_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5973C8D6-4800-254D-BDB8-99288707CD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8C297F-1051-4C4E-8BC2-D8C719B53CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51560" yWindow="500" windowWidth="50140" windowHeight="27240" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1941,12 +1941,6 @@
     <t>NIMP (AxMP)</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
-  </si>
-  <si>
     <t>populationSubset</t>
   </si>
   <si>
@@ -1966,13 +1960,19 @@
   </si>
   <si>
     <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2014,6 +2014,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2047,7 +2054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2114,6 +2121,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3024,7 +3034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -3086,8 +3096,8 @@
       <c r="D2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>619</v>
+      <c r="E2" s="10" t="s">
+        <v>626</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>80</v>
@@ -3110,8 +3120,8 @@
       <c r="D3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>620</v>
+      <c r="E3" s="27" t="s">
+        <v>627</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>81</v>
@@ -3617,7 +3627,7 @@
         <v>48</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>93</v>
@@ -3635,7 +3645,7 @@
         <v>94</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3667,7 +3677,7 @@
         <v>99</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -3676,7 +3686,7 @@
         <v>127</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -3685,7 +3695,7 @@
         <v>128</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3717,7 +3727,7 @@
         <v>133</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -5448,7 +5458,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -5484,7 +5494,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5500,7 +5510,7 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -5512,7 +5522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -5591,7 +5601,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>123</v>
@@ -5655,7 +5665,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -5727,6 +5737,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
@@ -5735,11 +5750,6 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/simple_1_v2.xlsx
+++ b/tests/integration_test_files/simple_1_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8C297F-1051-4C4E-8BC2-D8C719B53CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717DF94B-2608-1842-B453-1448F4BB121A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38420" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -458,12 +458,6 @@
     <t>Really really bad shit</t>
   </si>
   <si>
-    <t>Clinical Study Sponsor</t>
-  </si>
-  <si>
-    <t>Study Registry</t>
-  </si>
-  <si>
     <t>SPONSOR:T2_DIABETES=Type 2 diabetes, SNOMED: 73211009=Diabetes mellitus (disorder)</t>
   </si>
   <si>
@@ -1966,6 +1960,12 @@
   </si>
   <si>
     <t>Trial Secondary Objective</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Company</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
   </si>
 </sst>
 </file>
@@ -2119,11 +2119,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2458,10 +2458,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2699,61 +2699,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>43</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="K1" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>578</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>580</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -2761,58 +2761,58 @@
         <v>73</v>
       </c>
       <c r="B2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D2" t="s">
         <v>583</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>614</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>585</v>
       </c>
-      <c r="E2" t="s">
-        <v>616</v>
-      </c>
-      <c r="F2" s="24" t="s">
+      <c r="H2" t="s">
+        <v>615</v>
+      </c>
+      <c r="I2" t="s">
         <v>586</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>587</v>
       </c>
-      <c r="H2" t="s">
-        <v>617</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>588</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>589</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>590</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>591</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>592</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>593</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R2" t="s">
         <v>594</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="25" t="s">
         <v>595</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>154</v>
-      </c>
-      <c r="R2" t="s">
-        <v>596</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -2820,58 +2820,58 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="24" t="s">
+        <v>584</v>
+      </c>
+      <c r="G3" t="s">
+        <v>585</v>
+      </c>
+      <c r="H3" t="s">
+        <v>616</v>
+      </c>
+      <c r="I3" t="s">
         <v>586</v>
       </c>
-      <c r="G3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H3" t="s">
-        <v>618</v>
-      </c>
-      <c r="I3" t="s">
-        <v>588</v>
-      </c>
       <c r="J3" t="s">
+        <v>598</v>
+      </c>
+      <c r="K3" t="s">
+        <v>599</v>
+      </c>
+      <c r="L3" t="s">
         <v>600</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>590</v>
+      </c>
+      <c r="N3" t="s">
+        <v>591</v>
+      </c>
+      <c r="O3" t="s">
+        <v>592</v>
+      </c>
+      <c r="P3" t="s">
         <v>601</v>
       </c>
-      <c r="L3" t="s">
-        <v>602</v>
-      </c>
-      <c r="M3" t="s">
-        <v>592</v>
-      </c>
-      <c r="N3" t="s">
-        <v>593</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R3" t="s">
         <v>594</v>
       </c>
-      <c r="P3" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R3" t="s">
-        <v>596</v>
-      </c>
       <c r="S3" s="25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -2896,13 +2896,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D1" s="20" t="s">
         <v>45</v>
@@ -2913,10 +2913,10 @@
         <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>46</v>
@@ -2927,10 +2927,10 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>47</v>
@@ -2962,25 +2962,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>49</v>
@@ -2988,10 +2988,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3005,24 +3005,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B4" t="s">
         <v>609</v>
       </c>
-      <c r="B4" t="s">
-        <v>611</v>
-      </c>
       <c r="G4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -3034,7 +3034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -3060,10 +3060,10 @@
         <v>51</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>52</v>
@@ -3075,13 +3075,13 @@
         <v>53</v>
       </c>
       <c r="H1" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>560</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>561</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>562</v>
       </c>
       <c r="K1" s="20" t="s">
         <v>54</v>
@@ -3097,7 +3097,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>80</v>
@@ -3120,8 +3120,8 @@
       <c r="D3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>627</v>
+      <c r="E3" s="26" t="s">
+        <v>625</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>81</v>
@@ -3627,7 +3627,7 @@
         <v>48</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>93</v>
@@ -3645,7 +3645,7 @@
         <v>94</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3659,7 +3659,7 @@
         <v>97</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E2" t="s">
         <v>98</v>
@@ -3677,7 +3677,7 @@
         <v>99</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -3686,7 +3686,7 @@
         <v>127</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -3695,7 +3695,7 @@
         <v>128</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3709,7 +3709,7 @@
         <v>97</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E5" t="s">
         <v>131</v>
@@ -3727,7 +3727,7 @@
         <v>133</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -3759,62 +3759,62 @@
         <v>71</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>146</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" t="s">
         <v>149</v>
-      </c>
-      <c r="B2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>153</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3850,134 +3850,134 @@
         <v>71</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>161</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4007,101 +4007,101 @@
         <v>71</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4128,16 +4128,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -4146,1212 +4146,1212 @@
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B39" s="22"/>
       <c r="C39" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B48" s="22"/>
       <c r="C48" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B52" s="22"/>
       <c r="C52" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B53" s="22"/>
       <c r="C53" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B58" s="22"/>
       <c r="C58" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B61" s="22"/>
       <c r="C61" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B63" s="22"/>
       <c r="C63" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B64" s="22"/>
       <c r="C64" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B65" s="22"/>
       <c r="C65" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B66" s="22"/>
       <c r="C66" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B67" s="22"/>
       <c r="C67" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B68" s="22"/>
       <c r="C68" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B69" s="22"/>
       <c r="C69" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B70" s="22"/>
       <c r="C70" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B71" s="22"/>
       <c r="C71" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B72" s="22"/>
       <c r="C72" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B73" s="22"/>
       <c r="C73" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B74" s="22"/>
       <c r="C74" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B75" s="22"/>
       <c r="C75" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B76" s="22"/>
       <c r="C76" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B77" s="22"/>
       <c r="C77" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B78" s="22"/>
       <c r="C78" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B79" s="22"/>
       <c r="C79" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B80" s="22"/>
       <c r="C80" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B81" s="22"/>
       <c r="C81" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B82" s="22"/>
       <c r="C82" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B83" s="22"/>
       <c r="C83" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B84" s="22"/>
       <c r="C84" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B85" s="22"/>
       <c r="C85" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B86" s="22"/>
       <c r="C86" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B87" s="22"/>
       <c r="C87" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B88" s="22"/>
       <c r="C88" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B89" s="22"/>
       <c r="C89" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B90" s="22"/>
       <c r="C90" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B91" s="22"/>
       <c r="C91" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B92" s="22"/>
       <c r="C92" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B93" s="22"/>
       <c r="C93" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B94" s="22"/>
       <c r="C94" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B95" s="22"/>
       <c r="C95" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B96" s="22"/>
       <c r="C96" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B97" s="22"/>
       <c r="C97" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B98" s="22"/>
       <c r="C98" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B99" s="22"/>
       <c r="C99" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B100" s="22"/>
       <c r="C100" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B101" s="22"/>
       <c r="C101" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B102" s="22"/>
       <c r="C102" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B103" s="22"/>
       <c r="C103" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B104" s="22"/>
       <c r="C104" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B105" s="22"/>
       <c r="C105" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B106" s="22"/>
       <c r="C106" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B107" s="22"/>
       <c r="C107" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B108" s="22"/>
       <c r="C108" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B109" s="22"/>
       <c r="C109" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B110" s="22"/>
       <c r="C110" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B111" s="22"/>
       <c r="C111" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B112" s="22"/>
       <c r="C112" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B113" s="22"/>
       <c r="C113" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B114" s="22"/>
       <c r="C114" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B115" s="22"/>
       <c r="C115" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B116" s="22"/>
       <c r="C116" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B117" s="22"/>
       <c r="C117" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B118" s="22"/>
       <c r="C118" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B119" s="22"/>
       <c r="C119" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B120" s="22"/>
       <c r="C120" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B121" s="22"/>
       <c r="C121" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B122" s="22"/>
       <c r="C122" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B123" s="22"/>
       <c r="C123" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B124" s="22"/>
       <c r="C124" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B125" s="22"/>
       <c r="C125" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B126" s="22"/>
       <c r="C126" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B127" s="22"/>
       <c r="C127" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B128" s="22"/>
       <c r="C128" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B129" s="22"/>
       <c r="C129" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B130" s="22"/>
       <c r="C130" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B131" s="22"/>
       <c r="C131" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B132" s="22"/>
       <c r="C132" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -5398,8 +5398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5421,7 +5421,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>19</v>
@@ -5444,10 +5444,10 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>627</v>
       </c>
       <c r="F2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5458,16 +5458,16 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>626</v>
       </c>
       <c r="F3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -5494,7 +5494,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5510,7 +5510,7 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -5535,146 +5535,146 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+        <v>207</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+        <v>208</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>625</v>
-      </c>
-      <c r="B7" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+        <v>135</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>624</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+        <v>622</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>28</v>
@@ -5694,16 +5694,16 @@
         <v>26</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -5711,16 +5711,16 @@
         <v>27</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -5737,11 +5737,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
@@ -5750,6 +5745,11 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5774,19 +5774,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>230</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5794,16 +5794,16 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5814,13 +5814,13 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5848,13 +5848,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>217</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5862,10 +5862,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5873,10 +5873,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5884,10 +5884,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5895,10 +5895,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -5928,36 +5928,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>44</v>
@@ -5966,30 +5966,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5998,10 +5998,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -6010,46 +6010,46 @@
         <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6061,7 +6061,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -6083,22 +6083,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6109,7 +6109,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6184,167 +6184,167 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F3" t="s">
         <v>530</v>
-      </c>
-      <c r="B3" t="s">
-        <v>551</v>
-      </c>
-      <c r="C3" t="s">
-        <v>553</v>
-      </c>
-      <c r="D3" t="s">
-        <v>519</v>
-      </c>
-      <c r="E3" t="s">
-        <v>531</v>
-      </c>
-      <c r="F3" t="s">
-        <v>532</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D4" t="s">
+        <v>536</v>
+      </c>
+      <c r="E4" t="s">
+        <v>530</v>
+      </c>
+      <c r="F4" t="s">
+        <v>530</v>
+      </c>
+      <c r="G4" t="s">
         <v>538</v>
-      </c>
-      <c r="E4" t="s">
-        <v>532</v>
-      </c>
-      <c r="F4" t="s">
-        <v>532</v>
-      </c>
-      <c r="G4" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C5" t="s">
+        <v>541</v>
+      </c>
+      <c r="D5" t="s">
+        <v>539</v>
+      </c>
+      <c r="E5" t="s">
+        <v>544</v>
+      </c>
+      <c r="F5" t="s">
+        <v>530</v>
+      </c>
+      <c r="G5" t="s">
+        <v>542</v>
+      </c>
+      <c r="H5" t="s">
+        <v>527</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>543</v>
-      </c>
-      <c r="D5" t="s">
-        <v>541</v>
-      </c>
-      <c r="E5" t="s">
-        <v>546</v>
-      </c>
-      <c r="F5" t="s">
-        <v>532</v>
-      </c>
-      <c r="G5" t="s">
-        <v>544</v>
-      </c>
-      <c r="H5" t="s">
-        <v>529</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -6372,16 +6372,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6389,7 +6389,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6397,13 +6397,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
